--- a/Hidde/Meteorological Data.xlsx
+++ b/Hidde/Meteorological Data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="986" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -146,19 +146,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D708"/>
+  <dimension ref="A1:D707"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D:D"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A451" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F472" activeCellId="0" sqref="F472"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.1173469387755"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.0867346938776"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.469387755102"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.265306122449"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.8469387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.8214285714286"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.1989795918367"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.1479591836735"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5201,7 +5201,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="459" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="459" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A459" s="1" t="n">
         <v>42613.875</v>
       </c>
@@ -5212,2736 +5212,2731 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="460" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A460" s="1"/>
-      <c r="B460" s="2"/>
-      <c r="C460" s="2"/>
-    </row>
-    <row r="461" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="460" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A460" s="1" t="n">
+        <v>42705</v>
+      </c>
+      <c r="B460" s="2" t="n">
+        <v>125.8</v>
+      </c>
+      <c r="C460" s="2" t="n">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="461" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A461" s="1" t="n">
-        <v>42705</v>
+        <v>42705.125</v>
       </c>
       <c r="B461" s="2" t="n">
-        <v>125.8</v>
+        <v>128.4</v>
       </c>
       <c r="C461" s="2" t="n">
-        <v>4.2</v>
-      </c>
-    </row>
-    <row r="462" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="462" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A462" s="1" t="n">
-        <v>42705.125</v>
+        <v>42705.25</v>
       </c>
       <c r="B462" s="2" t="n">
-        <v>128.4</v>
+        <v>131.4</v>
       </c>
       <c r="C462" s="2" t="n">
-        <v>4.7</v>
-      </c>
-    </row>
-    <row r="463" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="463" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A463" s="1" t="n">
-        <v>42705.25</v>
+        <v>42705.375</v>
       </c>
       <c r="B463" s="2" t="n">
-        <v>131.4</v>
+        <v>129.7</v>
       </c>
       <c r="C463" s="2" t="n">
-        <v>4.3</v>
-      </c>
-    </row>
-    <row r="464" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="464" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A464" s="1" t="n">
-        <v>42705.375</v>
+        <v>42705.5</v>
       </c>
       <c r="B464" s="2" t="n">
-        <v>129.7</v>
+        <v>146.6</v>
       </c>
       <c r="C464" s="2" t="n">
-        <v>5.5</v>
-      </c>
-    </row>
-    <row r="465" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="465" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A465" s="1" t="n">
-        <v>42705.5</v>
+        <v>42705.625</v>
       </c>
       <c r="B465" s="2" t="n">
-        <v>146.6</v>
+        <v>175.5</v>
       </c>
       <c r="C465" s="2" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="466" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A466" s="1" t="n">
+        <v>42705.75</v>
+      </c>
+      <c r="B466" s="2" t="n">
+        <v>246.4</v>
+      </c>
+      <c r="C466" s="2" t="n">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="467" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A467" s="1" t="n">
+        <v>42705.875</v>
+      </c>
+      <c r="B467" s="2" t="n">
+        <v>261</v>
+      </c>
+      <c r="C467" s="2" t="n">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="468" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A468" s="1" t="n">
+        <v>42706</v>
+      </c>
+      <c r="B468" s="2" t="n">
+        <v>254.2</v>
+      </c>
+      <c r="C468" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="469" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A469" s="1" t="n">
+        <v>42706.125</v>
+      </c>
+      <c r="B469" s="2" t="n">
+        <v>272.1</v>
+      </c>
+      <c r="C469" s="2" t="n">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="470" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A470" s="1" t="n">
+        <v>42706.25</v>
+      </c>
+      <c r="B470" s="2" t="n">
+        <v>261.3</v>
+      </c>
+      <c r="C470" s="2" t="n">
+        <v>2.3</v>
+      </c>
+    </row>
+    <row r="471" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A471" s="1" t="n">
+        <v>42706.375</v>
+      </c>
+      <c r="B471" s="2" t="n">
+        <v>253.4</v>
+      </c>
+      <c r="C471" s="2" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="466" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A466" s="1" t="n">
-        <v>42705.625</v>
-      </c>
-      <c r="B466" s="2" t="n">
-        <v>175.5</v>
-      </c>
-      <c r="C466" s="2" t="n">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="467" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A467" s="1" t="n">
-        <v>42705.75</v>
-      </c>
-      <c r="B467" s="2" t="n">
-        <v>246.4</v>
-      </c>
-      <c r="C467" s="2" t="n">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="468" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A468" s="1" t="n">
-        <v>42705.875</v>
-      </c>
-      <c r="B468" s="2" t="n">
-        <v>261</v>
-      </c>
-      <c r="C468" s="2" t="n">
+    <row r="472" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A472" s="1" t="n">
+        <v>42706.5</v>
+      </c>
+      <c r="B472" s="2" t="n">
+        <v>217.4</v>
+      </c>
+      <c r="C472" s="2" t="n">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="473" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A473" s="1" t="n">
+        <v>42706.625</v>
+      </c>
+      <c r="B473" s="2" t="n">
+        <v>225.9</v>
+      </c>
+      <c r="C473" s="2" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="474" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A474" s="1" t="n">
+        <v>42706.75</v>
+      </c>
+      <c r="B474" s="2" t="n">
+        <v>222.1</v>
+      </c>
+      <c r="C474" s="2" t="n">
+        <v>2.3</v>
+      </c>
+    </row>
+    <row r="475" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A475" s="1" t="n">
+        <v>42706.875</v>
+      </c>
+      <c r="B475" s="2" t="n">
+        <v>258.3</v>
+      </c>
+      <c r="C475" s="2" t="n">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="476" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A476" s="1" t="n">
+        <v>42707</v>
+      </c>
+      <c r="B476" s="2" t="n">
+        <v>290.4</v>
+      </c>
+      <c r="C476" s="2" t="n">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="477" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A477" s="1" t="n">
+        <v>42707.125</v>
+      </c>
+      <c r="B477" s="2" t="n">
+        <v>283.4</v>
+      </c>
+      <c r="C477" s="2" t="n">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="478" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A478" s="1" t="n">
+        <v>42707.25</v>
+      </c>
+      <c r="B478" s="2" t="n">
+        <v>285.8</v>
+      </c>
+      <c r="C478" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="479" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A479" s="1" t="n">
+        <v>42707.375</v>
+      </c>
+      <c r="B479" s="2" t="n">
+        <v>294</v>
+      </c>
+      <c r="C479" s="2" t="n">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="480" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A480" s="1" t="n">
+        <v>42707.5</v>
+      </c>
+      <c r="B480" s="2" t="n">
+        <v>309.6</v>
+      </c>
+      <c r="C480" s="2" t="n">
         <v>3.7</v>
       </c>
     </row>
-    <row r="469" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A469" s="1" t="n">
-        <v>42706</v>
-      </c>
-      <c r="B469" s="2" t="n">
-        <v>254.2</v>
-      </c>
-      <c r="C469" s="2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="470" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A470" s="1" t="n">
-        <v>42706.125</v>
-      </c>
-      <c r="B470" s="2" t="n">
-        <v>272.1</v>
-      </c>
-      <c r="C470" s="2" t="n">
-        <v>3.2</v>
-      </c>
-    </row>
-    <row r="471" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A471" s="1" t="n">
-        <v>42706.25</v>
-      </c>
-      <c r="B471" s="2" t="n">
-        <v>261.3</v>
-      </c>
-      <c r="C471" s="2" t="n">
-        <v>2.3</v>
-      </c>
-    </row>
-    <row r="472" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A472" s="1" t="n">
-        <v>42706.375</v>
-      </c>
-      <c r="B472" s="2" t="n">
-        <v>253.4</v>
-      </c>
-      <c r="C472" s="2" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="473" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A473" s="1" t="n">
-        <v>42706.5</v>
-      </c>
-      <c r="B473" s="2" t="n">
-        <v>217.4</v>
-      </c>
-      <c r="C473" s="2" t="n">
-        <v>1.7</v>
-      </c>
-    </row>
-    <row r="474" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A474" s="1" t="n">
-        <v>42706.625</v>
-      </c>
-      <c r="B474" s="2" t="n">
-        <v>225.9</v>
-      </c>
-      <c r="C474" s="2" t="n">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="475" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A475" s="1" t="n">
-        <v>42706.75</v>
-      </c>
-      <c r="B475" s="2" t="n">
-        <v>222.1</v>
-      </c>
-      <c r="C475" s="2" t="n">
-        <v>2.3</v>
-      </c>
-    </row>
-    <row r="476" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A476" s="1" t="n">
-        <v>42706.875</v>
-      </c>
-      <c r="B476" s="2" t="n">
-        <v>258.3</v>
-      </c>
-      <c r="C476" s="2" t="n">
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="477" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A477" s="1" t="n">
-        <v>42707</v>
-      </c>
-      <c r="B477" s="2" t="n">
-        <v>290.4</v>
-      </c>
-      <c r="C477" s="2" t="n">
-        <v>2.4</v>
-      </c>
-    </row>
-    <row r="478" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A478" s="1" t="n">
-        <v>42707.125</v>
-      </c>
-      <c r="B478" s="2" t="n">
-        <v>283.4</v>
-      </c>
-      <c r="C478" s="2" t="n">
-        <v>3.1</v>
-      </c>
-    </row>
-    <row r="479" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A479" s="1" t="n">
-        <v>42707.25</v>
-      </c>
-      <c r="B479" s="2" t="n">
-        <v>285.8</v>
-      </c>
-      <c r="C479" s="2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="480" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A480" s="1" t="n">
-        <v>42707.375</v>
-      </c>
-      <c r="B480" s="2" t="n">
-        <v>294</v>
-      </c>
-      <c r="C480" s="2" t="n">
-        <v>3.6</v>
-      </c>
-    </row>
-    <row r="481" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="481" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A481" s="1" t="n">
-        <v>42707.5</v>
+        <v>42707.625</v>
       </c>
       <c r="B481" s="2" t="n">
-        <v>309.6</v>
+        <v>306.8</v>
       </c>
       <c r="C481" s="2" t="n">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="482" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A482" s="1" t="n">
+        <v>42707.75</v>
+      </c>
+      <c r="B482" s="2" t="n">
+        <v>311.4</v>
+      </c>
+      <c r="C482" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="483" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A483" s="1" t="n">
+        <v>42707.875</v>
+      </c>
+      <c r="B483" s="2" t="n">
+        <v>314.7</v>
+      </c>
+      <c r="C483" s="2" t="n">
         <v>3.7</v>
       </c>
     </row>
-    <row r="482" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A482" s="1" t="n">
-        <v>42707.625</v>
-      </c>
-      <c r="B482" s="2" t="n">
-        <v>306.8</v>
-      </c>
-      <c r="C482" s="2" t="n">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="483" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A483" s="1" t="n">
-        <v>42707.75</v>
-      </c>
-      <c r="B483" s="2" t="n">
-        <v>311.4</v>
-      </c>
-      <c r="C483" s="2" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="484" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="484" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A484" s="1" t="n">
-        <v>42707.875</v>
+        <v>42708</v>
       </c>
       <c r="B484" s="2" t="n">
-        <v>314.7</v>
+        <v>320.4</v>
       </c>
       <c r="C484" s="2" t="n">
         <v>3.7</v>
       </c>
     </row>
-    <row r="485" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="485" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A485" s="1" t="n">
-        <v>42708</v>
+        <v>42708.125</v>
       </c>
       <c r="B485" s="2" t="n">
-        <v>320.4</v>
+        <v>313</v>
       </c>
       <c r="C485" s="2" t="n">
-        <v>3.7</v>
-      </c>
-    </row>
-    <row r="486" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="486" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A486" s="1" t="n">
-        <v>42708.125</v>
+        <v>42708.25</v>
       </c>
       <c r="B486" s="2" t="n">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="C486" s="2" t="n">
-        <v>3.6</v>
-      </c>
-    </row>
-    <row r="487" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="487" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A487" s="1" t="n">
-        <v>42708.25</v>
+        <v>42708.375</v>
       </c>
       <c r="B487" s="2" t="n">
-        <v>318</v>
+        <v>308.2</v>
       </c>
       <c r="C487" s="2" t="n">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="488" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="488" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A488" s="1" t="n">
-        <v>42708.375</v>
+        <v>42708.5</v>
       </c>
       <c r="B488" s="2" t="n">
-        <v>308.2</v>
+        <v>309.2</v>
       </c>
       <c r="C488" s="2" t="n">
         <v>3.2</v>
       </c>
     </row>
-    <row r="489" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="489" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A489" s="1" t="n">
-        <v>42708.5</v>
+        <v>42708.625</v>
       </c>
       <c r="B489" s="2" t="n">
-        <v>309.2</v>
+        <v>313.2</v>
       </c>
       <c r="C489" s="2" t="n">
-        <v>3.2</v>
-      </c>
-    </row>
-    <row r="490" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="490" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A490" s="1" t="n">
-        <v>42708.625</v>
+        <v>42708.75</v>
       </c>
       <c r="B490" s="2" t="n">
-        <v>313.2</v>
+        <v>312.9</v>
       </c>
       <c r="C490" s="2" t="n">
-        <v>3.7</v>
-      </c>
-    </row>
-    <row r="491" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="491" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A491" s="1" t="n">
-        <v>42708.75</v>
+        <v>42708.875</v>
       </c>
       <c r="B491" s="2" t="n">
-        <v>312.9</v>
+        <v>318.9</v>
       </c>
       <c r="C491" s="2" t="n">
-        <v>3.8</v>
-      </c>
-    </row>
-    <row r="492" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="492" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A492" s="1" t="n">
-        <v>42708.875</v>
+        <v>42709</v>
       </c>
       <c r="B492" s="2" t="n">
-        <v>318.9</v>
+        <v>324.3</v>
       </c>
       <c r="C492" s="2" t="n">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="493" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A493" s="1" t="n">
+        <v>42709.125</v>
+      </c>
+      <c r="B493" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="C493" s="2" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="494" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A494" s="1" t="n">
+        <v>42709.25</v>
+      </c>
+      <c r="B494" s="2" t="n">
+        <v>155.2</v>
+      </c>
+      <c r="C494" s="2" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="495" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A495" s="1" t="n">
+        <v>42709.375</v>
+      </c>
+      <c r="B495" s="2" t="n">
+        <v>150.5</v>
+      </c>
+      <c r="C495" s="2" t="n">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="496" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A496" s="1" t="n">
+        <v>42709.5</v>
+      </c>
+      <c r="B496" s="2" t="n">
+        <v>174.5</v>
+      </c>
+      <c r="C496" s="2" t="n">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="497" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A497" s="1" t="n">
+        <v>42709.625</v>
+      </c>
+      <c r="B497" s="2" t="n">
+        <v>140.2</v>
+      </c>
+      <c r="C497" s="2" t="n">
+        <v>2.2</v>
+      </c>
+    </row>
+    <row r="498" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A498" s="1" t="n">
+        <v>42709.75</v>
+      </c>
+      <c r="B498" s="2" t="n">
+        <v>160.9</v>
+      </c>
+      <c r="C498" s="2" t="n">
         <v>2.7</v>
       </c>
     </row>
-    <row r="493" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A493" s="1" t="n">
-        <v>42709</v>
-      </c>
-      <c r="B493" s="2" t="n">
-        <v>324.3</v>
-      </c>
-      <c r="C493" s="2" t="n">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="494" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A494" s="1" t="n">
-        <v>42709.125</v>
-      </c>
-      <c r="B494" s="2" t="n">
-        <v>38</v>
-      </c>
-      <c r="C494" s="2" t="n">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="495" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A495" s="1" t="n">
-        <v>42709.25</v>
-      </c>
-      <c r="B495" s="2" t="n">
-        <v>155.2</v>
-      </c>
-      <c r="C495" s="2" t="n">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="496" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A496" s="1" t="n">
-        <v>42709.375</v>
-      </c>
-      <c r="B496" s="2" t="n">
-        <v>150.5</v>
-      </c>
-      <c r="C496" s="2" t="n">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="497" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A497" s="1" t="n">
-        <v>42709.5</v>
-      </c>
-      <c r="B497" s="2" t="n">
-        <v>174.5</v>
-      </c>
-      <c r="C497" s="2" t="n">
+    <row r="499" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A499" s="1" t="n">
+        <v>42709.875</v>
+      </c>
+      <c r="B499" s="2" t="n">
+        <v>175.8</v>
+      </c>
+      <c r="C499" s="2" t="n">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="500" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A500" s="1" t="n">
+        <v>42710</v>
+      </c>
+      <c r="B500" s="2" t="n">
+        <v>251.8</v>
+      </c>
+      <c r="C500" s="2" t="n">
         <v>1.9</v>
       </c>
     </row>
-    <row r="498" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A498" s="1" t="n">
-        <v>42709.625</v>
-      </c>
-      <c r="B498" s="2" t="n">
-        <v>140.2</v>
-      </c>
-      <c r="C498" s="2" t="n">
-        <v>2.2</v>
-      </c>
-    </row>
-    <row r="499" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A499" s="1" t="n">
-        <v>42709.75</v>
-      </c>
-      <c r="B499" s="2" t="n">
-        <v>160.9</v>
-      </c>
-      <c r="C499" s="2" t="n">
-        <v>2.7</v>
-      </c>
-    </row>
-    <row r="500" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A500" s="1" t="n">
-        <v>42709.875</v>
-      </c>
-      <c r="B500" s="2" t="n">
-        <v>175.8</v>
-      </c>
-      <c r="C500" s="2" t="n">
+    <row r="501" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A501" s="1" t="n">
+        <v>42710.125</v>
+      </c>
+      <c r="B501" s="2" t="n">
+        <v>293.3</v>
+      </c>
+      <c r="C501" s="2" t="n">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="502" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A502" s="1" t="n">
+        <v>42710.25</v>
+      </c>
+      <c r="B502" s="2" t="n">
+        <v>308.6</v>
+      </c>
+      <c r="C502" s="2" t="n">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="503" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A503" s="1" t="n">
+        <v>42710.375</v>
+      </c>
+      <c r="B503" s="2" t="n">
+        <v>311.7</v>
+      </c>
+      <c r="C503" s="2" t="n">
         <v>1.8</v>
       </c>
     </row>
-    <row r="501" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A501" s="1" t="n">
-        <v>42710</v>
-      </c>
-      <c r="B501" s="2" t="n">
-        <v>251.8</v>
-      </c>
-      <c r="C501" s="2" t="n">
-        <v>1.9</v>
-      </c>
-    </row>
-    <row r="502" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A502" s="1" t="n">
-        <v>42710.125</v>
-      </c>
-      <c r="B502" s="2" t="n">
-        <v>293.3</v>
-      </c>
-      <c r="C502" s="2" t="n">
-        <v>2.9</v>
-      </c>
-    </row>
-    <row r="503" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A503" s="1" t="n">
-        <v>42710.25</v>
-      </c>
-      <c r="B503" s="2" t="n">
-        <v>308.6</v>
-      </c>
-      <c r="C503" s="2" t="n">
-        <v>2.4</v>
-      </c>
-    </row>
-    <row r="504" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="504" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A504" s="1" t="n">
-        <v>42710.375</v>
+        <v>42710.5</v>
       </c>
       <c r="B504" s="2" t="n">
-        <v>311.7</v>
+        <v>307.9</v>
       </c>
       <c r="C504" s="2" t="n">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="505" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A505" s="1" t="n">
+        <v>42710.625</v>
+      </c>
+      <c r="B505" s="2" t="n">
+        <v>321.1</v>
+      </c>
+      <c r="C505" s="2" t="n">
         <v>1.8</v>
       </c>
     </row>
-    <row r="505" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A505" s="1" t="n">
-        <v>42710.5</v>
-      </c>
-      <c r="B505" s="2" t="n">
-        <v>307.9</v>
-      </c>
-      <c r="C505" s="2" t="n">
-        <v>1.7</v>
-      </c>
-    </row>
-    <row r="506" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="506" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A506" s="1" t="n">
-        <v>42710.625</v>
+        <v>42710.75</v>
       </c>
       <c r="B506" s="2" t="n">
-        <v>321.1</v>
+        <v>326</v>
       </c>
       <c r="C506" s="2" t="n">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="507" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="507" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A507" s="1" t="n">
-        <v>42710.75</v>
+        <v>42710.875</v>
       </c>
       <c r="B507" s="2" t="n">
-        <v>326</v>
+        <v>355.5</v>
       </c>
       <c r="C507" s="2" t="n">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="508" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="508" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A508" s="1" t="n">
-        <v>42710.875</v>
+        <v>42711</v>
       </c>
       <c r="B508" s="2" t="n">
-        <v>355.5</v>
+        <v>65.9</v>
       </c>
       <c r="C508" s="2" t="n">
         <v>0.6</v>
       </c>
     </row>
-    <row r="509" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="509" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A509" s="1" t="n">
-        <v>42711</v>
+        <v>42711.125</v>
       </c>
       <c r="B509" s="2" t="n">
-        <v>65.9</v>
+        <v>134.9</v>
       </c>
       <c r="C509" s="2" t="n">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="510" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="510" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A510" s="1" t="n">
-        <v>42711.125</v>
+        <v>42711.25</v>
       </c>
       <c r="B510" s="2" t="n">
-        <v>134.9</v>
+        <v>145</v>
       </c>
       <c r="C510" s="2" t="n">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="511" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="511" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A511" s="1" t="n">
-        <v>42711.25</v>
+        <v>42711.375</v>
       </c>
       <c r="B511" s="2" t="n">
-        <v>145</v>
+        <v>153.4</v>
       </c>
       <c r="C511" s="2" t="n">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="512" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A512" s="1" t="n">
+        <v>42711.5</v>
+      </c>
+      <c r="B512" s="2" t="n">
+        <v>144.5</v>
+      </c>
+      <c r="C512" s="2" t="n">
         <v>1.2</v>
       </c>
     </row>
-    <row r="512" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A512" s="1" t="n">
-        <v>42711.375</v>
-      </c>
-      <c r="B512" s="2" t="n">
-        <v>153.4</v>
-      </c>
-      <c r="C512" s="2" t="n">
+    <row r="513" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A513" s="1" t="n">
+        <v>42711.625</v>
+      </c>
+      <c r="B513" s="2" t="n">
+        <v>184.1</v>
+      </c>
+      <c r="C513" s="2" t="n">
+        <v>2.2</v>
+      </c>
+    </row>
+    <row r="514" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A514" s="1" t="n">
+        <v>42711.75</v>
+      </c>
+      <c r="B514" s="2" t="n">
+        <v>197.6</v>
+      </c>
+      <c r="C514" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="515" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A515" s="1" t="n">
+        <v>42711.875</v>
+      </c>
+      <c r="B515" s="2" t="n">
+        <v>221.5</v>
+      </c>
+      <c r="C515" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="516" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A516" s="1" t="n">
+        <v>42712</v>
+      </c>
+      <c r="B516" s="2" t="n">
+        <v>227.7</v>
+      </c>
+      <c r="C516" s="2" t="n">
         <v>1.3</v>
       </c>
     </row>
-    <row r="513" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A513" s="1" t="n">
-        <v>42711.5</v>
-      </c>
-      <c r="B513" s="2" t="n">
-        <v>144.5</v>
-      </c>
-      <c r="C513" s="2" t="n">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="514" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A514" s="1" t="n">
-        <v>42711.625</v>
-      </c>
-      <c r="B514" s="2" t="n">
-        <v>184.1</v>
-      </c>
-      <c r="C514" s="2" t="n">
-        <v>2.2</v>
-      </c>
-    </row>
-    <row r="515" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A515" s="1" t="n">
-        <v>42711.75</v>
-      </c>
-      <c r="B515" s="2" t="n">
-        <v>197.6</v>
-      </c>
-      <c r="C515" s="2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="516" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A516" s="1" t="n">
-        <v>42711.875</v>
-      </c>
-      <c r="B516" s="2" t="n">
-        <v>221.5</v>
-      </c>
-      <c r="C516" s="2" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="517" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="517" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A517" s="1" t="n">
-        <v>42712</v>
+        <v>42712.125</v>
       </c>
       <c r="B517" s="2" t="n">
-        <v>227.7</v>
+        <v>242.8</v>
       </c>
       <c r="C517" s="2" t="n">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="518" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A518" s="1" t="n">
+        <v>42712.25</v>
+      </c>
+      <c r="B518" s="2" t="n">
+        <v>239.5</v>
+      </c>
+      <c r="C518" s="2" t="n">
         <v>1.3</v>
       </c>
     </row>
-    <row r="518" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A518" s="1" t="n">
-        <v>42712.125</v>
-      </c>
-      <c r="B518" s="2" t="n">
-        <v>242.8</v>
-      </c>
-      <c r="C518" s="2" t="n">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="519" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="519" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A519" s="1" t="n">
-        <v>42712.25</v>
+        <v>42712.375</v>
       </c>
       <c r="B519" s="2" t="n">
-        <v>239.5</v>
+        <v>221</v>
       </c>
       <c r="C519" s="2" t="n">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="520" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="520" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A520" s="1" t="n">
-        <v>42712.375</v>
+        <v>42712.5</v>
       </c>
       <c r="B520" s="2" t="n">
-        <v>221</v>
+        <v>189.8</v>
       </c>
       <c r="C520" s="2" t="n">
         <v>1.9</v>
       </c>
     </row>
-    <row r="521" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="521" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A521" s="1" t="n">
-        <v>42712.5</v>
+        <v>42712.625</v>
       </c>
       <c r="B521" s="2" t="n">
-        <v>189.8</v>
+        <v>211.8</v>
       </c>
       <c r="C521" s="2" t="n">
-        <v>1.9</v>
-      </c>
-    </row>
-    <row r="522" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="522" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A522" s="1" t="n">
-        <v>42712.625</v>
+        <v>42712.75</v>
       </c>
       <c r="B522" s="2" t="n">
-        <v>211.8</v>
+        <v>226</v>
       </c>
       <c r="C522" s="2" t="n">
-        <v>2.7</v>
-      </c>
-    </row>
-    <row r="523" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="523" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A523" s="1" t="n">
-        <v>42712.75</v>
+        <v>42712.875</v>
       </c>
       <c r="B523" s="2" t="n">
-        <v>226</v>
+        <v>271.4</v>
       </c>
       <c r="C523" s="2" t="n">
-        <v>2.9</v>
-      </c>
-    </row>
-    <row r="524" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="524" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A524" s="1" t="n">
-        <v>42712.875</v>
+        <v>42713</v>
       </c>
       <c r="B524" s="2" t="n">
-        <v>271.4</v>
+        <v>249.2</v>
       </c>
       <c r="C524" s="2" t="n">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="525" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A525" s="1" t="n">
+        <v>42713.125</v>
+      </c>
+      <c r="B525" s="2" t="n">
+        <v>253.9</v>
+      </c>
+      <c r="C525" s="2" t="n">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="526" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A526" s="1" t="n">
+        <v>42713.25</v>
+      </c>
+      <c r="B526" s="2" t="n">
+        <v>266.3</v>
+      </c>
+      <c r="C526" s="2" t="n">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="527" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A527" s="1" t="n">
+        <v>42713.375</v>
+      </c>
+      <c r="B527" s="2" t="n">
+        <v>283.2</v>
+      </c>
+      <c r="C527" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="528" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A528" s="1" t="n">
+        <v>42713.5</v>
+      </c>
+      <c r="B528" s="2" t="n">
+        <v>289.2</v>
+      </c>
+      <c r="C528" s="2" t="n">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="529" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A529" s="1" t="n">
+        <v>42713.625</v>
+      </c>
+      <c r="B529" s="2" t="n">
+        <v>290.6</v>
+      </c>
+      <c r="C529" s="2" t="n">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="530" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A530" s="1" t="n">
+        <v>42713.75</v>
+      </c>
+      <c r="B530" s="2" t="n">
+        <v>287.2</v>
+      </c>
+      <c r="C530" s="2" t="n">
+        <v>5.1</v>
+      </c>
+    </row>
+    <row r="531" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A531" s="1" t="n">
+        <v>42713.875</v>
+      </c>
+      <c r="B531" s="2" t="n">
+        <v>286.1</v>
+      </c>
+      <c r="C531" s="2" t="n">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="532" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A532" s="1" t="n">
+        <v>42714</v>
+      </c>
+      <c r="B532" s="2" t="n">
+        <v>297</v>
+      </c>
+      <c r="C532" s="2" t="n">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="533" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A533" s="1" t="n">
+        <v>42714.125</v>
+      </c>
+      <c r="B533" s="2" t="n">
+        <v>308</v>
+      </c>
+      <c r="C533" s="2" t="n">
+        <v>4.4</v>
+      </c>
+    </row>
+    <row r="534" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A534" s="1" t="n">
+        <v>42714.25</v>
+      </c>
+      <c r="B534" s="2" t="n">
+        <v>295.4</v>
+      </c>
+      <c r="C534" s="2" t="n">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="535" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A535" s="1" t="n">
+        <v>42714.375</v>
+      </c>
+      <c r="B535" s="2" t="n">
+        <v>308.8</v>
+      </c>
+      <c r="C535" s="2" t="n">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="536" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A536" s="1" t="n">
+        <v>42714.5</v>
+      </c>
+      <c r="B536" s="2" t="n">
+        <v>310.3</v>
+      </c>
+      <c r="C536" s="2" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="525" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A525" s="1" t="n">
-        <v>42713</v>
-      </c>
-      <c r="B525" s="2" t="n">
-        <v>249.2</v>
-      </c>
-      <c r="C525" s="2" t="n">
-        <v>1.7</v>
-      </c>
-    </row>
-    <row r="526" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A526" s="1" t="n">
-        <v>42713.125</v>
-      </c>
-      <c r="B526" s="2" t="n">
-        <v>253.9</v>
-      </c>
-      <c r="C526" s="2" t="n">
-        <v>3.8</v>
-      </c>
-    </row>
-    <row r="527" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A527" s="1" t="n">
-        <v>42713.25</v>
-      </c>
-      <c r="B527" s="2" t="n">
-        <v>266.3</v>
-      </c>
-      <c r="C527" s="2" t="n">
-        <v>3.9</v>
-      </c>
-    </row>
-    <row r="528" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A528" s="1" t="n">
-        <v>42713.375</v>
-      </c>
-      <c r="B528" s="2" t="n">
-        <v>283.2</v>
-      </c>
-      <c r="C528" s="2" t="n">
+    <row r="537" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A537" s="1" t="n">
+        <v>42714.625</v>
+      </c>
+      <c r="B537" s="2" t="n">
+        <v>309.4</v>
+      </c>
+      <c r="C537" s="2" t="n">
+        <v>4.1</v>
+      </c>
+    </row>
+    <row r="538" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A538" s="1" t="n">
+        <v>42714.75</v>
+      </c>
+      <c r="B538" s="2" t="n">
+        <v>309.5</v>
+      </c>
+      <c r="C538" s="2" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="529" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A529" s="1" t="n">
-        <v>42713.5</v>
-      </c>
-      <c r="B529" s="2" t="n">
-        <v>289.2</v>
-      </c>
-      <c r="C529" s="2" t="n">
-        <v>4.8</v>
-      </c>
-    </row>
-    <row r="530" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A530" s="1" t="n">
-        <v>42713.625</v>
-      </c>
-      <c r="B530" s="2" t="n">
-        <v>290.6</v>
-      </c>
-      <c r="C530" s="2" t="n">
-        <v>4.2</v>
-      </c>
-    </row>
-    <row r="531" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A531" s="1" t="n">
-        <v>42713.75</v>
-      </c>
-      <c r="B531" s="2" t="n">
-        <v>287.2</v>
-      </c>
-      <c r="C531" s="2" t="n">
-        <v>5.1</v>
-      </c>
-    </row>
-    <row r="532" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A532" s="1" t="n">
-        <v>42713.875</v>
-      </c>
-      <c r="B532" s="2" t="n">
-        <v>286.1</v>
-      </c>
-      <c r="C532" s="2" t="n">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="533" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A533" s="1" t="n">
-        <v>42714</v>
-      </c>
-      <c r="B533" s="2" t="n">
-        <v>297</v>
-      </c>
-      <c r="C533" s="2" t="n">
-        <v>4.8</v>
-      </c>
-    </row>
-    <row r="534" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A534" s="1" t="n">
-        <v>42714.125</v>
-      </c>
-      <c r="B534" s="2" t="n">
-        <v>308</v>
-      </c>
-      <c r="C534" s="2" t="n">
-        <v>4.4</v>
-      </c>
-    </row>
-    <row r="535" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A535" s="1" t="n">
-        <v>42714.25</v>
-      </c>
-      <c r="B535" s="2" t="n">
-        <v>295.4</v>
-      </c>
-      <c r="C535" s="2" t="n">
-        <v>3.1</v>
-      </c>
-    </row>
-    <row r="536" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A536" s="1" t="n">
-        <v>42714.375</v>
-      </c>
-      <c r="B536" s="2" t="n">
-        <v>308.8</v>
-      </c>
-      <c r="C536" s="2" t="n">
-        <v>3.4</v>
-      </c>
-    </row>
-    <row r="537" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A537" s="1" t="n">
-        <v>42714.5</v>
-      </c>
-      <c r="B537" s="2" t="n">
-        <v>310.3</v>
-      </c>
-      <c r="C537" s="2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="538" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A538" s="1" t="n">
-        <v>42714.625</v>
-      </c>
-      <c r="B538" s="2" t="n">
-        <v>309.4</v>
-      </c>
-      <c r="C538" s="2" t="n">
-        <v>4.1</v>
-      </c>
-    </row>
-    <row r="539" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="539" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A539" s="1" t="n">
-        <v>42714.75</v>
+        <v>42714.875</v>
       </c>
       <c r="B539" s="2" t="n">
-        <v>309.5</v>
+        <v>309.9</v>
       </c>
       <c r="C539" s="2" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="540" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="540" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A540" s="1" t="n">
-        <v>42714.875</v>
+        <v>42715</v>
       </c>
       <c r="B540" s="2" t="n">
-        <v>309.9</v>
+        <v>279.8</v>
       </c>
       <c r="C540" s="2" t="n">
-        <v>3.2</v>
-      </c>
-    </row>
-    <row r="541" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="541" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A541" s="1" t="n">
-        <v>42715</v>
+        <v>42715.125</v>
       </c>
       <c r="B541" s="2" t="n">
-        <v>279.8</v>
+        <v>239.8</v>
       </c>
       <c r="C541" s="2" t="n">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="542" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="542" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A542" s="1" t="n">
-        <v>42715.125</v>
+        <v>42715.25</v>
       </c>
       <c r="B542" s="2" t="n">
-        <v>239.8</v>
+        <v>221</v>
       </c>
       <c r="C542" s="2" t="n">
         <v>0.8</v>
       </c>
     </row>
-    <row r="543" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="543" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A543" s="1" t="n">
-        <v>42715.25</v>
+        <v>42715.375</v>
       </c>
       <c r="B543" s="2" t="n">
-        <v>221</v>
+        <v>228.1</v>
       </c>
       <c r="C543" s="2" t="n">
         <v>0.8</v>
       </c>
     </row>
-    <row r="544" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="544" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A544" s="1" t="n">
-        <v>42715.375</v>
+        <v>42715.5</v>
       </c>
       <c r="B544" s="2" t="n">
-        <v>228.1</v>
+        <v>213.8</v>
       </c>
       <c r="C544" s="2" t="n">
         <v>0.8</v>
       </c>
     </row>
-    <row r="545" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="545" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A545" s="1" t="n">
-        <v>42715.5</v>
+        <v>42715.625</v>
       </c>
       <c r="B545" s="2" t="n">
-        <v>213.8</v>
+        <v>227.6</v>
       </c>
       <c r="C545" s="2" t="n">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="546" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="546" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A546" s="1" t="n">
-        <v>42715.625</v>
+        <v>42715.75</v>
       </c>
       <c r="B546" s="2" t="n">
-        <v>227.6</v>
+        <v>228.2</v>
       </c>
       <c r="C546" s="2" t="n">
-        <v>1.1</v>
-      </c>
-    </row>
-    <row r="547" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="547" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A547" s="1" t="n">
-        <v>42715.75</v>
+        <v>42715.875</v>
       </c>
       <c r="B547" s="2" t="n">
-        <v>228.2</v>
+        <v>215.6</v>
       </c>
       <c r="C547" s="2" t="n">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="548" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="548" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A548" s="1" t="n">
-        <v>42715.875</v>
+        <v>42716</v>
       </c>
       <c r="B548" s="2" t="n">
-        <v>215.6</v>
+        <v>145.4</v>
       </c>
       <c r="C548" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="549" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="549" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A549" s="1" t="n">
-        <v>42716</v>
+        <v>42716.125</v>
       </c>
       <c r="B549" s="2" t="n">
-        <v>145.4</v>
+        <v>137.6</v>
       </c>
       <c r="C549" s="2" t="n">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="550" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A550" s="1" t="n">
+        <v>42716.25</v>
+      </c>
+      <c r="B550" s="2" t="n">
+        <v>131.3</v>
+      </c>
+      <c r="C550" s="2" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="551" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A551" s="1" t="n">
+        <v>42716.375</v>
+      </c>
+      <c r="B551" s="2" t="n">
+        <v>136.8</v>
+      </c>
+      <c r="C551" s="2" t="n">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="552" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A552" s="1" t="n">
+        <v>42716.5</v>
+      </c>
+      <c r="B552" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="C552" s="2" t="n">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="553" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A553" s="1" t="n">
+        <v>42716.625</v>
+      </c>
+      <c r="B553" s="2" t="n">
+        <v>142.9</v>
+      </c>
+      <c r="C553" s="2" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="554" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A554" s="1" t="n">
+        <v>42716.75</v>
+      </c>
+      <c r="B554" s="2" t="n">
+        <v>189.8</v>
+      </c>
+      <c r="C554" s="2" t="n">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="555" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A555" s="1" t="n">
+        <v>42716.875</v>
+      </c>
+      <c r="B555" s="2" t="n">
+        <v>208.7</v>
+      </c>
+      <c r="C555" s="2" t="n">
         <v>1.5</v>
       </c>
     </row>
-    <row r="550" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A550" s="1" t="n">
-        <v>42716.125</v>
-      </c>
-      <c r="B550" s="2" t="n">
-        <v>137.6</v>
-      </c>
-      <c r="C550" s="2" t="n">
-        <v>1.9</v>
-      </c>
-    </row>
-    <row r="551" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A551" s="1" t="n">
-        <v>42716.25</v>
-      </c>
-      <c r="B551" s="2" t="n">
-        <v>131.3</v>
-      </c>
-      <c r="C551" s="2" t="n">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="552" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A552" s="1" t="n">
-        <v>42716.375</v>
-      </c>
-      <c r="B552" s="2" t="n">
-        <v>136.8</v>
-      </c>
-      <c r="C552" s="2" t="n">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="553" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A553" s="1" t="n">
-        <v>42716.5</v>
-      </c>
-      <c r="B553" s="2" t="n">
-        <v>134</v>
-      </c>
-      <c r="C553" s="2" t="n">
-        <v>3.9</v>
-      </c>
-    </row>
-    <row r="554" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A554" s="1" t="n">
-        <v>42716.625</v>
-      </c>
-      <c r="B554" s="2" t="n">
-        <v>142.9</v>
-      </c>
-      <c r="C554" s="2" t="n">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="555" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A555" s="1" t="n">
-        <v>42716.75</v>
-      </c>
-      <c r="B555" s="2" t="n">
-        <v>189.8</v>
-      </c>
-      <c r="C555" s="2" t="n">
-        <v>1.9</v>
-      </c>
-    </row>
-    <row r="556" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="556" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A556" s="1" t="n">
-        <v>42716.875</v>
+        <v>42717</v>
       </c>
       <c r="B556" s="2" t="n">
-        <v>208.7</v>
+        <v>227.7</v>
       </c>
       <c r="C556" s="2" t="n">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="557" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>2.2</v>
+      </c>
+    </row>
+    <row r="557" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A557" s="1" t="n">
-        <v>42717</v>
+        <v>42717.125</v>
       </c>
       <c r="B557" s="2" t="n">
-        <v>227.7</v>
+        <v>272.4</v>
       </c>
       <c r="C557" s="2" t="n">
-        <v>2.2</v>
-      </c>
-    </row>
-    <row r="558" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="558" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A558" s="1" t="n">
-        <v>42717.125</v>
+        <v>42717.25</v>
       </c>
       <c r="B558" s="2" t="n">
-        <v>272.4</v>
+        <v>293.5</v>
       </c>
       <c r="C558" s="2" t="n">
-        <v>3.3</v>
-      </c>
-    </row>
-    <row r="559" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>4.1</v>
+      </c>
+    </row>
+    <row r="559" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A559" s="1" t="n">
-        <v>42717.25</v>
+        <v>42717.375</v>
       </c>
       <c r="B559" s="2" t="n">
         <v>293.5</v>
       </c>
       <c r="C559" s="2" t="n">
-        <v>4.1</v>
-      </c>
-    </row>
-    <row r="560" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="560" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A560" s="1" t="n">
-        <v>42717.375</v>
+        <v>42717.5</v>
       </c>
       <c r="B560" s="2" t="n">
-        <v>293.5</v>
+        <v>285.2</v>
       </c>
       <c r="C560" s="2" t="n">
-        <v>3.7</v>
-      </c>
-    </row>
-    <row r="561" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="561" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A561" s="1" t="n">
-        <v>42717.5</v>
+        <v>42717.625</v>
       </c>
       <c r="B561" s="2" t="n">
-        <v>285.2</v>
+        <v>269.3</v>
       </c>
       <c r="C561" s="2" t="n">
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="562" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="562" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A562" s="1" t="n">
-        <v>42717.625</v>
+        <v>42717.75</v>
       </c>
       <c r="B562" s="2" t="n">
-        <v>269.3</v>
+        <v>224.2</v>
       </c>
       <c r="C562" s="2" t="n">
-        <v>2.7</v>
-      </c>
-    </row>
-    <row r="563" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="563" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A563" s="1" t="n">
-        <v>42717.75</v>
+        <v>42717.875</v>
       </c>
       <c r="B563" s="2" t="n">
-        <v>224.2</v>
+        <v>181.2</v>
       </c>
       <c r="C563" s="2" t="n">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="564" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="564" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A564" s="1" t="n">
-        <v>42717.875</v>
+        <v>42718</v>
       </c>
       <c r="B564" s="2" t="n">
-        <v>181.2</v>
+        <v>176.2</v>
       </c>
       <c r="C564" s="2" t="n">
-        <v>1.9</v>
-      </c>
-    </row>
-    <row r="565" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="565" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A565" s="1" t="n">
-        <v>42718</v>
+        <v>42718.125</v>
       </c>
       <c r="B565" s="2" t="n">
         <v>176.2</v>
       </c>
       <c r="C565" s="2" t="n">
-        <v>2.9</v>
-      </c>
-    </row>
-    <row r="566" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="566" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A566" s="1" t="n">
-        <v>42718.125</v>
+        <v>42718.25</v>
       </c>
       <c r="B566" s="2" t="n">
-        <v>176.2</v>
+        <v>198.3</v>
       </c>
       <c r="C566" s="2" t="n">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="567" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="567" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A567" s="1" t="n">
-        <v>42718.25</v>
+        <v>42718.375</v>
       </c>
       <c r="B567" s="2" t="n">
-        <v>198.3</v>
+        <v>216.3</v>
       </c>
       <c r="C567" s="2" t="n">
         <v>2.6</v>
       </c>
     </row>
-    <row r="568" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="568" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A568" s="1" t="n">
-        <v>42718.375</v>
+        <v>42718.5</v>
       </c>
       <c r="B568" s="2" t="n">
-        <v>216.3</v>
+        <v>272</v>
       </c>
       <c r="C568" s="2" t="n">
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="569" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>2.3</v>
+      </c>
+    </row>
+    <row r="569" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A569" s="1" t="n">
-        <v>42718.5</v>
+        <v>42718.625</v>
       </c>
       <c r="B569" s="2" t="n">
-        <v>272</v>
+        <v>290.9</v>
       </c>
       <c r="C569" s="2" t="n">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="570" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A570" s="1" t="n">
+        <v>42718.75</v>
+      </c>
+      <c r="B570" s="2" t="n">
+        <v>271</v>
+      </c>
+      <c r="C570" s="2" t="n">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="571" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A571" s="1" t="n">
+        <v>42718.875</v>
+      </c>
+      <c r="B571" s="2" t="n">
+        <v>229</v>
+      </c>
+      <c r="C571" s="2" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="572" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A572" s="1" t="n">
+        <v>42719</v>
+      </c>
+      <c r="B572" s="2" t="n">
+        <v>231</v>
+      </c>
+      <c r="C572" s="2" t="n">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="573" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A573" s="1" t="n">
+        <v>42719.125</v>
+      </c>
+      <c r="B573" s="2" t="n">
+        <v>204</v>
+      </c>
+      <c r="C573" s="2" t="n">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="574" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A574" s="1" t="n">
+        <v>42719.25</v>
+      </c>
+      <c r="B574" s="2" t="n">
+        <v>194.6</v>
+      </c>
+      <c r="C574" s="2" t="n">
         <v>2.3</v>
       </c>
     </row>
-    <row r="570" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A570" s="1" t="n">
-        <v>42718.625</v>
-      </c>
-      <c r="B570" s="2" t="n">
-        <v>290.9</v>
-      </c>
-      <c r="C570" s="2" t="n">
-        <v>3.6</v>
-      </c>
-    </row>
-    <row r="571" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A571" s="1" t="n">
-        <v>42718.75</v>
-      </c>
-      <c r="B571" s="2" t="n">
-        <v>271</v>
-      </c>
-      <c r="C571" s="2" t="n">
+    <row r="575" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A575" s="1" t="n">
+        <v>42719.375</v>
+      </c>
+      <c r="B575" s="2" t="n">
+        <v>279.8</v>
+      </c>
+      <c r="C575" s="2" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="576" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A576" s="1" t="n">
+        <v>42719.5</v>
+      </c>
+      <c r="B576" s="2" t="n">
+        <v>262.3</v>
+      </c>
+      <c r="C576" s="2" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="577" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A577" s="1" t="n">
+        <v>42719.625</v>
+      </c>
+      <c r="B577" s="2" t="n">
+        <v>279.8</v>
+      </c>
+      <c r="C577" s="2" t="n">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="578" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A578" s="1" t="n">
+        <v>42719.75</v>
+      </c>
+      <c r="B578" s="2" t="n">
+        <v>282.3</v>
+      </c>
+      <c r="C578" s="2" t="n">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="579" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A579" s="1" t="n">
+        <v>42719.875</v>
+      </c>
+      <c r="B579" s="2" t="n">
+        <v>284.6</v>
+      </c>
+      <c r="C579" s="2" t="n">
+        <v>4.6</v>
+      </c>
+    </row>
+    <row r="580" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A580" s="1" t="n">
+        <v>42720</v>
+      </c>
+      <c r="B580" s="2" t="n">
+        <v>303.5</v>
+      </c>
+      <c r="C580" s="2" t="n">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="581" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A581" s="1" t="n">
+        <v>42720.125</v>
+      </c>
+      <c r="B581" s="2" t="n">
+        <v>304.2</v>
+      </c>
+      <c r="C581" s="2" t="n">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="582" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A582" s="1" t="n">
+        <v>42720.25</v>
+      </c>
+      <c r="B582" s="2" t="n">
+        <v>299.7</v>
+      </c>
+      <c r="C582" s="2" t="n">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="583" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A583" s="1" t="n">
+        <v>42720.375</v>
+      </c>
+      <c r="B583" s="2" t="n">
+        <v>301.6</v>
+      </c>
+      <c r="C583" s="2" t="n">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="584" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A584" s="1" t="n">
+        <v>42720.5</v>
+      </c>
+      <c r="B584" s="2" t="n">
+        <v>295.2</v>
+      </c>
+      <c r="C584" s="2" t="n">
         <v>3.1</v>
       </c>
     </row>
-    <row r="572" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A572" s="1" t="n">
-        <v>42718.875</v>
-      </c>
-      <c r="B572" s="2" t="n">
-        <v>229</v>
-      </c>
-      <c r="C572" s="2" t="n">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="573" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A573" s="1" t="n">
-        <v>42719</v>
-      </c>
-      <c r="B573" s="2" t="n">
-        <v>231</v>
-      </c>
-      <c r="C573" s="2" t="n">
-        <v>3.7</v>
-      </c>
-    </row>
-    <row r="574" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A574" s="1" t="n">
-        <v>42719.125</v>
-      </c>
-      <c r="B574" s="2" t="n">
-        <v>204</v>
-      </c>
-      <c r="C574" s="2" t="n">
-        <v>2.7</v>
-      </c>
-    </row>
-    <row r="575" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A575" s="1" t="n">
-        <v>42719.25</v>
-      </c>
-      <c r="B575" s="2" t="n">
-        <v>194.6</v>
-      </c>
-      <c r="C575" s="2" t="n">
-        <v>2.3</v>
-      </c>
-    </row>
-    <row r="576" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A576" s="1" t="n">
-        <v>42719.375</v>
-      </c>
-      <c r="B576" s="2" t="n">
-        <v>279.8</v>
-      </c>
-      <c r="C576" s="2" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="577" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A577" s="1" t="n">
-        <v>42719.5</v>
-      </c>
-      <c r="B577" s="2" t="n">
-        <v>262.3</v>
-      </c>
-      <c r="C577" s="2" t="n">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="578" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A578" s="1" t="n">
-        <v>42719.625</v>
-      </c>
-      <c r="B578" s="2" t="n">
-        <v>279.8</v>
-      </c>
-      <c r="C578" s="2" t="n">
-        <v>5.4</v>
-      </c>
-    </row>
-    <row r="579" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A579" s="1" t="n">
-        <v>42719.75</v>
-      </c>
-      <c r="B579" s="2" t="n">
-        <v>282.3</v>
-      </c>
-      <c r="C579" s="2" t="n">
-        <v>6.7</v>
-      </c>
-    </row>
-    <row r="580" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A580" s="1" t="n">
-        <v>42719.875</v>
-      </c>
-      <c r="B580" s="2" t="n">
-        <v>284.6</v>
-      </c>
-      <c r="C580" s="2" t="n">
-        <v>4.6</v>
-      </c>
-    </row>
-    <row r="581" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A581" s="1" t="n">
-        <v>42720</v>
-      </c>
-      <c r="B581" s="2" t="n">
-        <v>303.5</v>
-      </c>
-      <c r="C581" s="2" t="n">
-        <v>6.8</v>
-      </c>
-    </row>
-    <row r="582" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A582" s="1" t="n">
-        <v>42720.125</v>
-      </c>
-      <c r="B582" s="2" t="n">
-        <v>304.2</v>
-      </c>
-      <c r="C582" s="2" t="n">
-        <v>6.3</v>
-      </c>
-    </row>
-    <row r="583" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A583" s="1" t="n">
-        <v>42720.25</v>
-      </c>
-      <c r="B583" s="2" t="n">
-        <v>299.7</v>
-      </c>
-      <c r="C583" s="2" t="n">
-        <v>5.4</v>
-      </c>
-    </row>
-    <row r="584" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A584" s="1" t="n">
-        <v>42720.375</v>
-      </c>
-      <c r="B584" s="2" t="n">
-        <v>301.6</v>
-      </c>
-      <c r="C584" s="2" t="n">
-        <v>4.8</v>
-      </c>
-    </row>
-    <row r="585" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="585" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A585" s="1" t="n">
-        <v>42720.5</v>
+        <v>42720.625</v>
       </c>
       <c r="B585" s="2" t="n">
-        <v>295.2</v>
+        <v>286.8</v>
       </c>
       <c r="C585" s="2" t="n">
-        <v>3.1</v>
-      </c>
-    </row>
-    <row r="586" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="586" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A586" s="1" t="n">
-        <v>42720.625</v>
+        <v>42720.75</v>
       </c>
       <c r="B586" s="2" t="n">
-        <v>286.8</v>
+        <v>276.2</v>
       </c>
       <c r="C586" s="2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="587" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="587" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A587" s="1" t="n">
-        <v>42720.75</v>
+        <v>42720.875</v>
       </c>
       <c r="B587" s="2" t="n">
-        <v>276.2</v>
+        <v>227.1</v>
       </c>
       <c r="C587" s="2" t="n">
-        <v>2.8</v>
-      </c>
-    </row>
-    <row r="588" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="588" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A588" s="1" t="n">
-        <v>42720.875</v>
+        <v>42721</v>
       </c>
       <c r="B588" s="2" t="n">
-        <v>227.1</v>
+        <v>169.9</v>
       </c>
       <c r="C588" s="2" t="n">
         <v>1.4</v>
       </c>
     </row>
-    <row r="589" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="589" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A589" s="1" t="n">
-        <v>42721</v>
+        <v>42721.125</v>
       </c>
       <c r="B589" s="2" t="n">
-        <v>169.9</v>
+        <v>186</v>
       </c>
       <c r="C589" s="2" t="n">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="590" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A590" s="1" t="n">
+        <v>42721.25</v>
+      </c>
+      <c r="B590" s="2" t="n">
+        <v>185.3</v>
+      </c>
+      <c r="C590" s="2" t="n">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="591" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A591" s="1" t="n">
+        <v>42721.375</v>
+      </c>
+      <c r="B591" s="2" t="n">
+        <v>164</v>
+      </c>
+      <c r="C591" s="2" t="n">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="592" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A592" s="1" t="n">
+        <v>42721.5</v>
+      </c>
+      <c r="B592" s="2" t="n">
+        <v>154.6</v>
+      </c>
+      <c r="C592" s="2" t="n">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="593" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A593" s="1" t="n">
+        <v>42721.625</v>
+      </c>
+      <c r="B593" s="2" t="n">
+        <v>156.9</v>
+      </c>
+      <c r="C593" s="2" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="594" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A594" s="1" t="n">
+        <v>42721.75</v>
+      </c>
+      <c r="B594" s="2" t="n">
+        <v>146.5</v>
+      </c>
+      <c r="C594" s="2" t="n">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="595" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A595" s="1" t="n">
+        <v>42721.875</v>
+      </c>
+      <c r="B595" s="2" t="n">
+        <v>161.8</v>
+      </c>
+      <c r="C595" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="596" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A596" s="1" t="n">
+        <v>42722</v>
+      </c>
+      <c r="B596" s="2" t="n">
+        <v>177.9</v>
+      </c>
+      <c r="C596" s="2" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="597" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A597" s="1" t="n">
+        <v>42722.125</v>
+      </c>
+      <c r="B597" s="2" t="n">
+        <v>173.3</v>
+      </c>
+      <c r="C597" s="2" t="n">
         <v>1.4</v>
       </c>
     </row>
-    <row r="590" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A590" s="1" t="n">
-        <v>42721.125</v>
-      </c>
-      <c r="B590" s="2" t="n">
-        <v>186</v>
-      </c>
-      <c r="C590" s="2" t="n">
-        <v>1.9</v>
-      </c>
-    </row>
-    <row r="591" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A591" s="1" t="n">
-        <v>42721.25</v>
-      </c>
-      <c r="B591" s="2" t="n">
-        <v>185.3</v>
-      </c>
-      <c r="C591" s="2" t="n">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="592" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A592" s="1" t="n">
-        <v>42721.375</v>
-      </c>
-      <c r="B592" s="2" t="n">
-        <v>164</v>
-      </c>
-      <c r="C592" s="2" t="n">
-        <v>1.9</v>
-      </c>
-    </row>
-    <row r="593" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A593" s="1" t="n">
-        <v>42721.5</v>
-      </c>
-      <c r="B593" s="2" t="n">
-        <v>154.6</v>
-      </c>
-      <c r="C593" s="2" t="n">
-        <v>2.4</v>
-      </c>
-    </row>
-    <row r="594" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A594" s="1" t="n">
-        <v>42721.625</v>
-      </c>
-      <c r="B594" s="2" t="n">
-        <v>156.9</v>
-      </c>
-      <c r="C594" s="2" t="n">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="595" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A595" s="1" t="n">
-        <v>42721.75</v>
-      </c>
-      <c r="B595" s="2" t="n">
-        <v>146.5</v>
-      </c>
-      <c r="C595" s="2" t="n">
-        <v>2.1</v>
-      </c>
-    </row>
-    <row r="596" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A596" s="1" t="n">
-        <v>42721.875</v>
-      </c>
-      <c r="B596" s="2" t="n">
-        <v>161.8</v>
-      </c>
-      <c r="C596" s="2" t="n">
+    <row r="598" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A598" s="1" t="n">
+        <v>42722.25</v>
+      </c>
+      <c r="B598" s="2" t="n">
+        <v>165.9</v>
+      </c>
+      <c r="C598" s="2" t="n">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="599" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A599" s="1" t="n">
+        <v>42722.375</v>
+      </c>
+      <c r="B599" s="2" t="n">
+        <v>173.6</v>
+      </c>
+      <c r="C599" s="2" t="n">
+        <v>2.2</v>
+      </c>
+    </row>
+    <row r="600" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A600" s="1" t="n">
+        <v>42722.5</v>
+      </c>
+      <c r="B600" s="2" t="n">
+        <v>186.5</v>
+      </c>
+      <c r="C600" s="2" t="n">
+        <v>2.3</v>
+      </c>
+    </row>
+    <row r="601" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A601" s="1" t="n">
+        <v>42722.625</v>
+      </c>
+      <c r="B601" s="2" t="n">
+        <v>182</v>
+      </c>
+      <c r="C601" s="2" t="n">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="602" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A602" s="1" t="n">
+        <v>42722.75</v>
+      </c>
+      <c r="B602" s="2" t="n">
+        <v>291.6</v>
+      </c>
+      <c r="C602" s="2" t="n">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="603" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A603" s="1" t="n">
+        <v>42722.875</v>
+      </c>
+      <c r="B603" s="2" t="n">
+        <v>287.7</v>
+      </c>
+      <c r="C603" s="2" t="n">
+        <v>4.1</v>
+      </c>
+    </row>
+    <row r="604" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A604" s="1" t="n">
+        <v>42723</v>
+      </c>
+      <c r="B604" s="2" t="n">
+        <v>292.5</v>
+      </c>
+      <c r="C604" s="2" t="n">
+        <v>4.4</v>
+      </c>
+    </row>
+    <row r="605" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A605" s="1" t="n">
+        <v>42723.125</v>
+      </c>
+      <c r="B605" s="2" t="n">
+        <v>299.9</v>
+      </c>
+      <c r="C605" s="2" t="n">
+        <v>5.1</v>
+      </c>
+    </row>
+    <row r="606" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A606" s="1" t="n">
+        <v>42723.25</v>
+      </c>
+      <c r="B606" s="2" t="n">
+        <v>308.5</v>
+      </c>
+      <c r="C606" s="2" t="n">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="607" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A607" s="1" t="n">
+        <v>42723.375</v>
+      </c>
+      <c r="B607" s="2" t="n">
+        <v>313.4</v>
+      </c>
+      <c r="C607" s="2" t="n">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="608" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A608" s="1" t="n">
+        <v>42723.5</v>
+      </c>
+      <c r="B608" s="2" t="n">
+        <v>318.1</v>
+      </c>
+      <c r="C608" s="2" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="597" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A597" s="1" t="n">
-        <v>42722</v>
-      </c>
-      <c r="B597" s="2" t="n">
-        <v>177.9</v>
-      </c>
-      <c r="C597" s="2" t="n">
+    <row r="609" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A609" s="1" t="n">
+        <v>42723.625</v>
+      </c>
+      <c r="B609" s="2" t="n">
+        <v>299.1</v>
+      </c>
+      <c r="C609" s="2" t="n">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="610" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A610" s="1" t="n">
+        <v>42723.75</v>
+      </c>
+      <c r="B610" s="2" t="n">
+        <v>300.1</v>
+      </c>
+      <c r="C610" s="2" t="n">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="611" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A611" s="1" t="n">
+        <v>42723.875</v>
+      </c>
+      <c r="B611" s="2" t="n">
+        <v>249.2</v>
+      </c>
+      <c r="C611" s="2" t="n">
         <v>0.9</v>
       </c>
     </row>
-    <row r="598" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A598" s="1" t="n">
-        <v>42722.125</v>
-      </c>
-      <c r="B598" s="2" t="n">
-        <v>173.3</v>
-      </c>
-      <c r="C598" s="2" t="n">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="599" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A599" s="1" t="n">
-        <v>42722.25</v>
-      </c>
-      <c r="B599" s="2" t="n">
-        <v>165.9</v>
-      </c>
-      <c r="C599" s="2" t="n">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="600" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A600" s="1" t="n">
-        <v>42722.375</v>
-      </c>
-      <c r="B600" s="2" t="n">
-        <v>173.6</v>
-      </c>
-      <c r="C600" s="2" t="n">
-        <v>2.2</v>
-      </c>
-    </row>
-    <row r="601" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A601" s="1" t="n">
-        <v>42722.5</v>
-      </c>
-      <c r="B601" s="2" t="n">
-        <v>186.5</v>
-      </c>
-      <c r="C601" s="2" t="n">
-        <v>2.3</v>
-      </c>
-    </row>
-    <row r="602" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A602" s="1" t="n">
-        <v>42722.625</v>
-      </c>
-      <c r="B602" s="2" t="n">
-        <v>182</v>
-      </c>
-      <c r="C602" s="2" t="n">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="603" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A603" s="1" t="n">
-        <v>42722.75</v>
-      </c>
-      <c r="B603" s="2" t="n">
-        <v>291.6</v>
-      </c>
-      <c r="C603" s="2" t="n">
-        <v>3.7</v>
-      </c>
-    </row>
-    <row r="604" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A604" s="1" t="n">
-        <v>42722.875</v>
-      </c>
-      <c r="B604" s="2" t="n">
-        <v>287.7</v>
-      </c>
-      <c r="C604" s="2" t="n">
-        <v>4.1</v>
-      </c>
-    </row>
-    <row r="605" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A605" s="1" t="n">
-        <v>42723</v>
-      </c>
-      <c r="B605" s="2" t="n">
-        <v>292.5</v>
-      </c>
-      <c r="C605" s="2" t="n">
-        <v>4.4</v>
-      </c>
-    </row>
-    <row r="606" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A606" s="1" t="n">
-        <v>42723.125</v>
-      </c>
-      <c r="B606" s="2" t="n">
-        <v>299.9</v>
-      </c>
-      <c r="C606" s="2" t="n">
-        <v>5.1</v>
-      </c>
-    </row>
-    <row r="607" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A607" s="1" t="n">
-        <v>42723.25</v>
-      </c>
-      <c r="B607" s="2" t="n">
-        <v>308.5</v>
-      </c>
-      <c r="C607" s="2" t="n">
-        <v>3.9</v>
-      </c>
-    </row>
-    <row r="608" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A608" s="1" t="n">
-        <v>42723.375</v>
-      </c>
-      <c r="B608" s="2" t="n">
-        <v>313.4</v>
-      </c>
-      <c r="C608" s="2" t="n">
-        <v>2.8</v>
-      </c>
-    </row>
-    <row r="609" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A609" s="1" t="n">
-        <v>42723.5</v>
-      </c>
-      <c r="B609" s="2" t="n">
-        <v>318.1</v>
-      </c>
-      <c r="C609" s="2" t="n">
+    <row r="612" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A612" s="1" t="n">
+        <v>42724</v>
+      </c>
+      <c r="B612" s="2" t="n">
+        <v>222.7</v>
+      </c>
+      <c r="C612" s="2" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="610" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A610" s="1" t="n">
-        <v>42723.625</v>
-      </c>
-      <c r="B610" s="2" t="n">
-        <v>299.1</v>
-      </c>
-      <c r="C610" s="2" t="n">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="611" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A611" s="1" t="n">
-        <v>42723.75</v>
-      </c>
-      <c r="B611" s="2" t="n">
-        <v>300.1</v>
-      </c>
-      <c r="C611" s="2" t="n">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="612" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A612" s="1" t="n">
-        <v>42723.875</v>
-      </c>
-      <c r="B612" s="2" t="n">
-        <v>249.2</v>
-      </c>
-      <c r="C612" s="2" t="n">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="613" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="613" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A613" s="1" t="n">
-        <v>42724</v>
+        <v>42724.125</v>
       </c>
       <c r="B613" s="2" t="n">
-        <v>222.7</v>
+        <v>184.8</v>
       </c>
       <c r="C613" s="2" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="614" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="614" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A614" s="1" t="n">
-        <v>42724.125</v>
+        <v>42724.25</v>
       </c>
       <c r="B614" s="2" t="n">
-        <v>184.8</v>
+        <v>208.4</v>
       </c>
       <c r="C614" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="615" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="615" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A615" s="1" t="n">
-        <v>42724.25</v>
+        <v>42724.375</v>
       </c>
       <c r="B615" s="2" t="n">
-        <v>208.4</v>
+        <v>175.3</v>
       </c>
       <c r="C615" s="2" t="n">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="616" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="616" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A616" s="1" t="n">
-        <v>42724.375</v>
+        <v>42724.5</v>
       </c>
       <c r="B616" s="2" t="n">
-        <v>175.3</v>
+        <v>182.6</v>
       </c>
       <c r="C616" s="2" t="n">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="617" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="617" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A617" s="1" t="n">
-        <v>42724.5</v>
+        <v>42724.625</v>
       </c>
       <c r="B617" s="2" t="n">
-        <v>182.6</v>
+        <v>176.4</v>
       </c>
       <c r="C617" s="2" t="n">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="618" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="618" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A618" s="1" t="n">
-        <v>42724.625</v>
+        <v>42724.75</v>
       </c>
       <c r="B618" s="2" t="n">
-        <v>176.4</v>
+        <v>195.9</v>
       </c>
       <c r="C618" s="2" t="n">
-        <v>1.9</v>
-      </c>
-    </row>
-    <row r="619" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="619" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A619" s="1" t="n">
-        <v>42724.75</v>
+        <v>42724.875</v>
       </c>
       <c r="B619" s="2" t="n">
-        <v>195.9</v>
+        <v>179.8</v>
       </c>
       <c r="C619" s="2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="620" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="620" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A620" s="1" t="n">
-        <v>42724.875</v>
+        <v>42725</v>
       </c>
       <c r="B620" s="2" t="n">
-        <v>179.8</v>
+        <v>189.8</v>
       </c>
       <c r="C620" s="2" t="n">
         <v>2.9</v>
       </c>
     </row>
-    <row r="621" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="621" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A621" s="1" t="n">
-        <v>42725</v>
+        <v>42725.125</v>
       </c>
       <c r="B621" s="2" t="n">
+        <v>200.3</v>
+      </c>
+      <c r="C621" s="2" t="n">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="622" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A622" s="1" t="n">
+        <v>42725.25</v>
+      </c>
+      <c r="B622" s="2" t="n">
+        <v>215.6</v>
+      </c>
+      <c r="C622" s="2" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="623" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A623" s="1" t="n">
+        <v>42725.375</v>
+      </c>
+      <c r="B623" s="2" t="n">
+        <v>216.8</v>
+      </c>
+      <c r="C623" s="2" t="n">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="624" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A624" s="1" t="n">
+        <v>42725.5</v>
+      </c>
+      <c r="B624" s="2" t="n">
+        <v>211.2</v>
+      </c>
+      <c r="C624" s="2" t="n">
+        <v>2.2</v>
+      </c>
+    </row>
+    <row r="625" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A625" s="1" t="n">
+        <v>42725.625</v>
+      </c>
+      <c r="B625" s="2" t="n">
+        <v>242.2</v>
+      </c>
+      <c r="C625" s="2" t="n">
+        <v>2.3</v>
+      </c>
+    </row>
+    <row r="626" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A626" s="1" t="n">
+        <v>42725.75</v>
+      </c>
+      <c r="B626" s="2" t="n">
+        <v>252.5</v>
+      </c>
+      <c r="C626" s="2" t="n">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="627" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A627" s="1" t="n">
+        <v>42725.875</v>
+      </c>
+      <c r="B627" s="2" t="n">
+        <v>256.8</v>
+      </c>
+      <c r="C627" s="2" t="n">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="628" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A628" s="1" t="n">
+        <v>42726</v>
+      </c>
+      <c r="B628" s="2" t="n">
+        <v>259.3</v>
+      </c>
+      <c r="C628" s="2" t="n">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="629" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A629" s="1" t="n">
+        <v>42726.125</v>
+      </c>
+      <c r="B629" s="2" t="n">
+        <v>251.6</v>
+      </c>
+      <c r="C629" s="2" t="n">
+        <v>2.2</v>
+      </c>
+    </row>
+    <row r="630" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A630" s="1" t="n">
+        <v>42726.25</v>
+      </c>
+      <c r="B630" s="2" t="n">
+        <v>218.5</v>
+      </c>
+      <c r="C630" s="2" t="n">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="631" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A631" s="1" t="n">
+        <v>42726.375</v>
+      </c>
+      <c r="B631" s="2" t="n">
+        <v>188.7</v>
+      </c>
+      <c r="C631" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="632" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A632" s="1" t="n">
+        <v>42726.5</v>
+      </c>
+      <c r="B632" s="2" t="n">
+        <v>186.5</v>
+      </c>
+      <c r="C632" s="2" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="633" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A633" s="1" t="n">
+        <v>42726.625</v>
+      </c>
+      <c r="B633" s="2" t="n">
+        <v>187.9</v>
+      </c>
+      <c r="C633" s="2" t="n">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="634" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A634" s="1" t="n">
+        <v>42726.75</v>
+      </c>
+      <c r="B634" s="2" t="n">
+        <v>203.5</v>
+      </c>
+      <c r="C634" s="2" t="n">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="635" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A635" s="1" t="n">
+        <v>42726.875</v>
+      </c>
+      <c r="B635" s="2" t="n">
+        <v>271.2</v>
+      </c>
+      <c r="C635" s="2" t="n">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="636" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A636" s="1" t="n">
+        <v>42727</v>
+      </c>
+      <c r="B636" s="2" t="n">
+        <v>299.5</v>
+      </c>
+      <c r="C636" s="2" t="n">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="637" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A637" s="1" t="n">
+        <v>42727.125</v>
+      </c>
+      <c r="B637" s="2" t="n">
+        <v>296.2</v>
+      </c>
+      <c r="C637" s="2" t="n">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="638" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A638" s="1" t="n">
+        <v>42727.25</v>
+      </c>
+      <c r="B638" s="2" t="n">
+        <v>293.9</v>
+      </c>
+      <c r="C638" s="2" t="n">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="639" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A639" s="1" t="n">
+        <v>42727.375</v>
+      </c>
+      <c r="B639" s="2" t="n">
+        <v>279.8</v>
+      </c>
+      <c r="C639" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="640" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A640" s="1" t="n">
+        <v>42727.5</v>
+      </c>
+      <c r="B640" s="2" t="n">
+        <v>257.2</v>
+      </c>
+      <c r="C640" s="2" t="n">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="641" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A641" s="1" t="n">
+        <v>42727.625</v>
+      </c>
+      <c r="B641" s="2" t="n">
+        <v>263.1</v>
+      </c>
+      <c r="C641" s="2" t="n">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="642" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A642" s="1" t="n">
+        <v>42727.75</v>
+      </c>
+      <c r="B642" s="2" t="n">
+        <v>237.7</v>
+      </c>
+      <c r="C642" s="2" t="n">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="643" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A643" s="1" t="n">
+        <v>42727.875</v>
+      </c>
+      <c r="B643" s="2" t="n">
+        <v>232.2</v>
+      </c>
+      <c r="C643" s="2" t="n">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="644" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A644" s="1" t="n">
+        <v>42728</v>
+      </c>
+      <c r="B644" s="2" t="n">
+        <v>202.6</v>
+      </c>
+      <c r="C644" s="2" t="n">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="645" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A645" s="1" t="n">
+        <v>42728.125</v>
+      </c>
+      <c r="B645" s="2" t="n">
+        <v>172.3</v>
+      </c>
+      <c r="C645" s="2" t="n">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="646" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A646" s="1" t="n">
+        <v>42728.25</v>
+      </c>
+      <c r="B646" s="2" t="n">
+        <v>180.3</v>
+      </c>
+      <c r="C646" s="2" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="647" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A647" s="1" t="n">
+        <v>42728.375</v>
+      </c>
+      <c r="B647" s="2" t="n">
+        <v>179.9</v>
+      </c>
+      <c r="C647" s="2" t="n">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="648" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A648" s="1" t="n">
+        <v>42728.5</v>
+      </c>
+      <c r="B648" s="2" t="n">
+        <v>165</v>
+      </c>
+      <c r="C648" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="649" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A649" s="1" t="n">
+        <v>42728.625</v>
+      </c>
+      <c r="B649" s="2" t="n">
+        <v>203.2</v>
+      </c>
+      <c r="C649" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="650" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A650" s="1" t="n">
+        <v>42728.75</v>
+      </c>
+      <c r="B650" s="2" t="n">
+        <v>205.5</v>
+      </c>
+      <c r="C650" s="2" t="n">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="651" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A651" s="1" t="n">
+        <v>42728.875</v>
+      </c>
+      <c r="B651" s="2" t="n">
+        <v>268.1</v>
+      </c>
+      <c r="C651" s="2" t="n">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="652" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A652" s="1" t="n">
+        <v>42729</v>
+      </c>
+      <c r="B652" s="2" t="n">
+        <v>282.3</v>
+      </c>
+      <c r="C652" s="2" t="n">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="653" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A653" s="1" t="n">
+        <v>42729.125</v>
+      </c>
+      <c r="B653" s="2" t="n">
+        <v>278.3</v>
+      </c>
+      <c r="C653" s="2" t="n">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="654" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A654" s="1" t="n">
+        <v>42729.25</v>
+      </c>
+      <c r="B654" s="2" t="n">
+        <v>279.8</v>
+      </c>
+      <c r="C654" s="2" t="n">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="655" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A655" s="1" t="n">
+        <v>42729.375</v>
+      </c>
+      <c r="B655" s="2" t="n">
+        <v>298</v>
+      </c>
+      <c r="C655" s="2" t="n">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="656" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A656" s="1" t="n">
+        <v>42729.5</v>
+      </c>
+      <c r="B656" s="2" t="n">
+        <v>312.9</v>
+      </c>
+      <c r="C656" s="2" t="n">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="657" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A657" s="1" t="n">
+        <v>42729.625</v>
+      </c>
+      <c r="B657" s="2" t="n">
+        <v>321.2</v>
+      </c>
+      <c r="C657" s="2" t="n">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="658" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A658" s="1" t="n">
+        <v>42729.75</v>
+      </c>
+      <c r="B658" s="2" t="n">
+        <v>323</v>
+      </c>
+      <c r="C658" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="659" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A659" s="1" t="n">
+        <v>42729.875</v>
+      </c>
+      <c r="B659" s="2" t="n">
+        <v>326.7</v>
+      </c>
+      <c r="C659" s="2" t="n">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="660" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A660" s="1" t="n">
+        <v>42730</v>
+      </c>
+      <c r="B660" s="2" t="n">
+        <v>332.1</v>
+      </c>
+      <c r="C660" s="2" t="n">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="661" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A661" s="1" t="n">
+        <v>42730.125</v>
+      </c>
+      <c r="B661" s="2" t="n">
+        <v>319.2</v>
+      </c>
+      <c r="C661" s="2" t="n">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="662" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A662" s="1" t="n">
+        <v>42730.25</v>
+      </c>
+      <c r="B662" s="2" t="n">
+        <v>345.9</v>
+      </c>
+      <c r="C662" s="2" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="663" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A663" s="1" t="n">
+        <v>42730.375</v>
+      </c>
+      <c r="B663" s="2" t="n">
+        <v>78.9</v>
+      </c>
+      <c r="C663" s="2" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="664" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A664" s="1" t="n">
+        <v>42730.5</v>
+      </c>
+      <c r="B664" s="2" t="n">
+        <v>130.6</v>
+      </c>
+      <c r="C664" s="2" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="665" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A665" s="1" t="n">
+        <v>42730.625</v>
+      </c>
+      <c r="B665" s="2" t="n">
+        <v>147.1</v>
+      </c>
+      <c r="C665" s="2" t="n">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="666" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A666" s="1" t="n">
+        <v>42730.75</v>
+      </c>
+      <c r="B666" s="2" t="n">
+        <v>162.4</v>
+      </c>
+      <c r="C666" s="2" t="n">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="667" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A667" s="1" t="n">
+        <v>42730.875</v>
+      </c>
+      <c r="B667" s="2" t="n">
+        <v>166.8</v>
+      </c>
+      <c r="C667" s="2" t="n">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="668" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A668" s="1" t="n">
+        <v>42731</v>
+      </c>
+      <c r="B668" s="2" t="n">
+        <v>174.7</v>
+      </c>
+      <c r="C668" s="2" t="n">
+        <v>4.6</v>
+      </c>
+    </row>
+    <row r="669" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A669" s="1" t="n">
+        <v>42731.125</v>
+      </c>
+      <c r="B669" s="2" t="n">
+        <v>177.8</v>
+      </c>
+      <c r="C669" s="2" t="n">
+        <v>4.9</v>
+      </c>
+    </row>
+    <row r="670" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A670" s="1" t="n">
+        <v>42731.25</v>
+      </c>
+      <c r="B670" s="2" t="n">
         <v>189.8</v>
       </c>
-      <c r="C621" s="2" t="n">
-        <v>2.9</v>
-      </c>
-    </row>
-    <row r="622" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A622" s="1" t="n">
-        <v>42725.125</v>
-      </c>
-      <c r="B622" s="2" t="n">
-        <v>200.3</v>
-      </c>
-      <c r="C622" s="2" t="n">
-        <v>3.2</v>
-      </c>
-    </row>
-    <row r="623" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A623" s="1" t="n">
-        <v>42725.25</v>
-      </c>
-      <c r="B623" s="2" t="n">
-        <v>215.6</v>
-      </c>
-      <c r="C623" s="2" t="n">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="624" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A624" s="1" t="n">
-        <v>42725.375</v>
-      </c>
-      <c r="B624" s="2" t="n">
-        <v>216.8</v>
-      </c>
-      <c r="C624" s="2" t="n">
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="625" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A625" s="1" t="n">
-        <v>42725.5</v>
-      </c>
-      <c r="B625" s="2" t="n">
-        <v>211.2</v>
-      </c>
-      <c r="C625" s="2" t="n">
-        <v>2.2</v>
-      </c>
-    </row>
-    <row r="626" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A626" s="1" t="n">
-        <v>42725.625</v>
-      </c>
-      <c r="B626" s="2" t="n">
-        <v>242.2</v>
-      </c>
-      <c r="C626" s="2" t="n">
-        <v>2.3</v>
-      </c>
-    </row>
-    <row r="627" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A627" s="1" t="n">
-        <v>42725.75</v>
-      </c>
-      <c r="B627" s="2" t="n">
-        <v>252.5</v>
-      </c>
-      <c r="C627" s="2" t="n">
+      <c r="C670" s="2" t="n">
         <v>3.8</v>
       </c>
     </row>
-    <row r="628" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A628" s="1" t="n">
-        <v>42725.875</v>
-      </c>
-      <c r="B628" s="2" t="n">
-        <v>256.8</v>
-      </c>
-      <c r="C628" s="2" t="n">
-        <v>3.6</v>
-      </c>
-    </row>
-    <row r="629" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A629" s="1" t="n">
-        <v>42726</v>
-      </c>
-      <c r="B629" s="2" t="n">
-        <v>259.3</v>
-      </c>
-      <c r="C629" s="2" t="n">
-        <v>2.1</v>
-      </c>
-    </row>
-    <row r="630" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A630" s="1" t="n">
-        <v>42726.125</v>
-      </c>
-      <c r="B630" s="2" t="n">
-        <v>251.6</v>
-      </c>
-      <c r="C630" s="2" t="n">
-        <v>2.2</v>
-      </c>
-    </row>
-    <row r="631" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A631" s="1" t="n">
-        <v>42726.25</v>
-      </c>
-      <c r="B631" s="2" t="n">
-        <v>218.5</v>
-      </c>
-      <c r="C631" s="2" t="n">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="632" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A632" s="1" t="n">
-        <v>42726.375</v>
-      </c>
-      <c r="B632" s="2" t="n">
-        <v>188.7</v>
-      </c>
-      <c r="C632" s="2" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="633" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A633" s="1" t="n">
-        <v>42726.5</v>
-      </c>
-      <c r="B633" s="2" t="n">
-        <v>186.5</v>
-      </c>
-      <c r="C633" s="2" t="n">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="634" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A634" s="1" t="n">
-        <v>42726.625</v>
-      </c>
-      <c r="B634" s="2" t="n">
-        <v>187.9</v>
-      </c>
-      <c r="C634" s="2" t="n">
-        <v>2.4</v>
-      </c>
-    </row>
-    <row r="635" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A635" s="1" t="n">
-        <v>42726.75</v>
-      </c>
-      <c r="B635" s="2" t="n">
-        <v>203.5</v>
-      </c>
-      <c r="C635" s="2" t="n">
-        <v>1.9</v>
-      </c>
-    </row>
-    <row r="636" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A636" s="1" t="n">
-        <v>42726.875</v>
-      </c>
-      <c r="B636" s="2" t="n">
-        <v>271.2</v>
-      </c>
-      <c r="C636" s="2" t="n">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="637" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A637" s="1" t="n">
-        <v>42727</v>
-      </c>
-      <c r="B637" s="2" t="n">
-        <v>299.5</v>
-      </c>
-      <c r="C637" s="2" t="n">
-        <v>2.1</v>
-      </c>
-    </row>
-    <row r="638" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A638" s="1" t="n">
-        <v>42727.125</v>
-      </c>
-      <c r="B638" s="2" t="n">
-        <v>296.2</v>
-      </c>
-      <c r="C638" s="2" t="n">
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="639" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A639" s="1" t="n">
-        <v>42727.25</v>
-      </c>
-      <c r="B639" s="2" t="n">
-        <v>293.9</v>
-      </c>
-      <c r="C639" s="2" t="n">
-        <v>3.2</v>
-      </c>
-    </row>
-    <row r="640" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A640" s="1" t="n">
-        <v>42727.375</v>
-      </c>
-      <c r="B640" s="2" t="n">
-        <v>279.8</v>
-      </c>
-      <c r="C640" s="2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="641" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A641" s="1" t="n">
-        <v>42727.5</v>
-      </c>
-      <c r="B641" s="2" t="n">
-        <v>257.2</v>
-      </c>
-      <c r="C641" s="2" t="n">
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="642" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A642" s="1" t="n">
-        <v>42727.625</v>
-      </c>
-      <c r="B642" s="2" t="n">
-        <v>263.1</v>
-      </c>
-      <c r="C642" s="2" t="n">
-        <v>3.6</v>
-      </c>
-    </row>
-    <row r="643" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A643" s="1" t="n">
-        <v>42727.75</v>
-      </c>
-      <c r="B643" s="2" t="n">
-        <v>237.7</v>
-      </c>
-      <c r="C643" s="2" t="n">
-        <v>3.2</v>
-      </c>
-    </row>
-    <row r="644" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A644" s="1" t="n">
-        <v>42727.875</v>
-      </c>
-      <c r="B644" s="2" t="n">
-        <v>232.2</v>
-      </c>
-      <c r="C644" s="2" t="n">
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="645" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A645" s="1" t="n">
-        <v>42728</v>
-      </c>
-      <c r="B645" s="2" t="n">
-        <v>202.6</v>
-      </c>
-      <c r="C645" s="2" t="n">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="646" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A646" s="1" t="n">
-        <v>42728.125</v>
-      </c>
-      <c r="B646" s="2" t="n">
-        <v>172.3</v>
-      </c>
-      <c r="C646" s="2" t="n">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="647" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A647" s="1" t="n">
-        <v>42728.25</v>
-      </c>
-      <c r="B647" s="2" t="n">
-        <v>180.3</v>
-      </c>
-      <c r="C647" s="2" t="n">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="648" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A648" s="1" t="n">
-        <v>42728.375</v>
-      </c>
-      <c r="B648" s="2" t="n">
-        <v>179.9</v>
-      </c>
-      <c r="C648" s="2" t="n">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="649" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A649" s="1" t="n">
-        <v>42728.5</v>
-      </c>
-      <c r="B649" s="2" t="n">
-        <v>165</v>
-      </c>
-      <c r="C649" s="2" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="650" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A650" s="1" t="n">
-        <v>42728.625</v>
-      </c>
-      <c r="B650" s="2" t="n">
-        <v>203.2</v>
-      </c>
-      <c r="C650" s="2" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="651" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A651" s="1" t="n">
-        <v>42728.75</v>
-      </c>
-      <c r="B651" s="2" t="n">
-        <v>205.5</v>
-      </c>
-      <c r="C651" s="2" t="n">
-        <v>3.4</v>
-      </c>
-    </row>
-    <row r="652" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A652" s="1" t="n">
-        <v>42728.875</v>
-      </c>
-      <c r="B652" s="2" t="n">
-        <v>268.1</v>
-      </c>
-      <c r="C652" s="2" t="n">
-        <v>3.6</v>
-      </c>
-    </row>
-    <row r="653" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A653" s="1" t="n">
-        <v>42729</v>
-      </c>
-      <c r="B653" s="2" t="n">
-        <v>282.3</v>
-      </c>
-      <c r="C653" s="2" t="n">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="654" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A654" s="1" t="n">
-        <v>42729.125</v>
-      </c>
-      <c r="B654" s="2" t="n">
-        <v>278.3</v>
-      </c>
-      <c r="C654" s="2" t="n">
-        <v>3.9</v>
-      </c>
-    </row>
-    <row r="655" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A655" s="1" t="n">
-        <v>42729.25</v>
-      </c>
-      <c r="B655" s="2" t="n">
-        <v>279.8</v>
-      </c>
-      <c r="C655" s="2" t="n">
+    <row r="671" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A671" s="1" t="n">
+        <v>42731.375</v>
+      </c>
+      <c r="B671" s="2" t="n">
+        <v>205.2</v>
+      </c>
+      <c r="C671" s="2" t="n">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="672" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A672" s="1" t="n">
+        <v>42731.5</v>
+      </c>
+      <c r="B672" s="2" t="n">
+        <v>241.3</v>
+      </c>
+      <c r="C672" s="2" t="n">
+        <v>4.9</v>
+      </c>
+    </row>
+    <row r="673" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A673" s="1" t="n">
+        <v>42731.625</v>
+      </c>
+      <c r="B673" s="2" t="n">
+        <v>273.8</v>
+      </c>
+      <c r="C673" s="2" t="n">
+        <v>4.6</v>
+      </c>
+    </row>
+    <row r="674" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A674" s="1" t="n">
+        <v>42731.75</v>
+      </c>
+      <c r="B674" s="2" t="n">
+        <v>275.6</v>
+      </c>
+      <c r="C674" s="2" t="n">
         <v>4.3</v>
       </c>
     </row>
-    <row r="656" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A656" s="1" t="n">
-        <v>42729.375</v>
-      </c>
-      <c r="B656" s="2" t="n">
-        <v>298</v>
-      </c>
-      <c r="C656" s="2" t="n">
+    <row r="675" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A675" s="1" t="n">
+        <v>42731.875</v>
+      </c>
+      <c r="B675" s="2" t="n">
+        <v>284</v>
+      </c>
+      <c r="C675" s="2" t="n">
         <v>4.8</v>
       </c>
     </row>
-    <row r="657" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A657" s="1" t="n">
-        <v>42729.5</v>
-      </c>
-      <c r="B657" s="2" t="n">
-        <v>312.9</v>
-      </c>
-      <c r="C657" s="2" t="n">
-        <v>5.5</v>
-      </c>
-    </row>
-    <row r="658" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A658" s="1" t="n">
-        <v>42729.625</v>
-      </c>
-      <c r="B658" s="2" t="n">
-        <v>321.2</v>
-      </c>
-      <c r="C658" s="2" t="n">
-        <v>5.9</v>
-      </c>
-    </row>
-    <row r="659" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A659" s="1" t="n">
-        <v>42729.75</v>
-      </c>
-      <c r="B659" s="2" t="n">
-        <v>323</v>
-      </c>
-      <c r="C659" s="2" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="660" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A660" s="1" t="n">
-        <v>42729.875</v>
-      </c>
-      <c r="B660" s="2" t="n">
-        <v>326.7</v>
-      </c>
-      <c r="C660" s="2" t="n">
-        <v>3.7</v>
-      </c>
-    </row>
-    <row r="661" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A661" s="1" t="n">
-        <v>42730</v>
-      </c>
-      <c r="B661" s="2" t="n">
-        <v>332.1</v>
-      </c>
-      <c r="C661" s="2" t="n">
-        <v>2.1</v>
-      </c>
-    </row>
-    <row r="662" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A662" s="1" t="n">
-        <v>42730.125</v>
-      </c>
-      <c r="B662" s="2" t="n">
-        <v>319.2</v>
-      </c>
-      <c r="C662" s="2" t="n">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="663" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A663" s="1" t="n">
-        <v>42730.25</v>
-      </c>
-      <c r="B663" s="2" t="n">
-        <v>345.9</v>
-      </c>
-      <c r="C663" s="2" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="664" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A664" s="1" t="n">
-        <v>42730.375</v>
-      </c>
-      <c r="B664" s="2" t="n">
-        <v>78.9</v>
-      </c>
-      <c r="C664" s="2" t="n">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="665" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A665" s="1" t="n">
-        <v>42730.5</v>
-      </c>
-      <c r="B665" s="2" t="n">
-        <v>130.6</v>
-      </c>
-      <c r="C665" s="2" t="n">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="666" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A666" s="1" t="n">
-        <v>42730.625</v>
-      </c>
-      <c r="B666" s="2" t="n">
-        <v>147.1</v>
-      </c>
-      <c r="C666" s="2" t="n">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="667" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A667" s="1" t="n">
-        <v>42730.75</v>
-      </c>
-      <c r="B667" s="2" t="n">
-        <v>162.4</v>
-      </c>
-      <c r="C667" s="2" t="n">
-        <v>3.4</v>
-      </c>
-    </row>
-    <row r="668" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A668" s="1" t="n">
-        <v>42730.875</v>
-      </c>
-      <c r="B668" s="2" t="n">
-        <v>166.8</v>
-      </c>
-      <c r="C668" s="2" t="n">
-        <v>5.4</v>
-      </c>
-    </row>
-    <row r="669" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A669" s="1" t="n">
-        <v>42731</v>
-      </c>
-      <c r="B669" s="2" t="n">
-        <v>174.7</v>
-      </c>
-      <c r="C669" s="2" t="n">
-        <v>4.6</v>
-      </c>
-    </row>
-    <row r="670" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A670" s="1" t="n">
-        <v>42731.125</v>
-      </c>
-      <c r="B670" s="2" t="n">
-        <v>177.8</v>
-      </c>
-      <c r="C670" s="2" t="n">
-        <v>4.9</v>
-      </c>
-    </row>
-    <row r="671" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A671" s="1" t="n">
-        <v>42731.25</v>
-      </c>
-      <c r="B671" s="2" t="n">
-        <v>189.8</v>
-      </c>
-      <c r="C671" s="2" t="n">
-        <v>3.8</v>
-      </c>
-    </row>
-    <row r="672" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A672" s="1" t="n">
-        <v>42731.375</v>
-      </c>
-      <c r="B672" s="2" t="n">
-        <v>205.2</v>
-      </c>
-      <c r="C672" s="2" t="n">
-        <v>3.3</v>
-      </c>
-    </row>
-    <row r="673" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A673" s="1" t="n">
-        <v>42731.5</v>
-      </c>
-      <c r="B673" s="2" t="n">
-        <v>241.3</v>
-      </c>
-      <c r="C673" s="2" t="n">
-        <v>4.9</v>
-      </c>
-    </row>
-    <row r="674" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A674" s="1" t="n">
-        <v>42731.625</v>
-      </c>
-      <c r="B674" s="2" t="n">
-        <v>273.8</v>
-      </c>
-      <c r="C674" s="2" t="n">
-        <v>4.6</v>
-      </c>
-    </row>
-    <row r="675" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A675" s="1" t="n">
-        <v>42731.75</v>
-      </c>
-      <c r="B675" s="2" t="n">
-        <v>275.6</v>
-      </c>
-      <c r="C675" s="2" t="n">
-        <v>4.3</v>
-      </c>
-    </row>
-    <row r="676" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="676" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A676" s="1" t="n">
-        <v>42731.875</v>
+        <v>42732</v>
       </c>
       <c r="B676" s="2" t="n">
         <v>284</v>
       </c>
       <c r="C676" s="2" t="n">
-        <v>4.8</v>
-      </c>
-    </row>
-    <row r="677" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="677" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A677" s="1" t="n">
-        <v>42732</v>
+        <v>42732.125</v>
       </c>
       <c r="B677" s="2" t="n">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="C677" s="2" t="n">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="678" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="678" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A678" s="1" t="n">
-        <v>42732.125</v>
+        <v>42732.25</v>
       </c>
       <c r="B678" s="2" t="n">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C678" s="2" t="n">
         <v>3.4</v>
       </c>
     </row>
-    <row r="679" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="679" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A679" s="1" t="n">
-        <v>42732.25</v>
+        <v>42732.375</v>
       </c>
       <c r="B679" s="2" t="n">
-        <v>270</v>
+        <v>271.3</v>
       </c>
       <c r="C679" s="2" t="n">
-        <v>3.4</v>
-      </c>
-    </row>
-    <row r="680" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="680" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A680" s="1" t="n">
-        <v>42732.375</v>
+        <v>42732.5</v>
       </c>
       <c r="B680" s="2" t="n">
-        <v>271.3</v>
+        <v>282.5</v>
       </c>
       <c r="C680" s="2" t="n">
-        <v>3.1</v>
-      </c>
-    </row>
-    <row r="681" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="681" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A681" s="1" t="n">
-        <v>42732.5</v>
+        <v>42732.625</v>
       </c>
       <c r="B681" s="2" t="n">
-        <v>282.5</v>
+        <v>303.5</v>
       </c>
       <c r="C681" s="2" t="n">
         <v>2.9</v>
       </c>
     </row>
-    <row r="682" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="682" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A682" s="1" t="n">
-        <v>42732.625</v>
+        <v>42732.75</v>
       </c>
       <c r="B682" s="2" t="n">
-        <v>303.5</v>
+        <v>300.4</v>
       </c>
       <c r="C682" s="2" t="n">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="683" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A683" s="1" t="n">
+        <v>42732.875</v>
+      </c>
+      <c r="B683" s="2" t="n">
+        <v>308.4</v>
+      </c>
+      <c r="C683" s="2" t="n">
         <v>2.9</v>
       </c>
     </row>
-    <row r="683" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A683" s="1" t="n">
-        <v>42732.75</v>
-      </c>
-      <c r="B683" s="2" t="n">
-        <v>300.4</v>
-      </c>
-      <c r="C683" s="2" t="n">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="684" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="684" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A684" s="1" t="n">
-        <v>42732.875</v>
+        <v>42733</v>
       </c>
       <c r="B684" s="2" t="n">
-        <v>308.4</v>
+        <v>307.7</v>
       </c>
       <c r="C684" s="2" t="n">
-        <v>2.9</v>
-      </c>
-    </row>
-    <row r="685" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="685" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A685" s="1" t="n">
-        <v>42733</v>
+        <v>42733.125</v>
       </c>
       <c r="B685" s="2" t="n">
-        <v>307.7</v>
+        <v>234.7</v>
       </c>
       <c r="C685" s="2" t="n">
-        <v>1.1</v>
-      </c>
-    </row>
-    <row r="686" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="686" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A686" s="1" t="n">
-        <v>42733.125</v>
+        <v>42733.25</v>
       </c>
       <c r="B686" s="2" t="n">
-        <v>234.7</v>
+        <v>143.2</v>
       </c>
       <c r="C686" s="2" t="n">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="687" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="687" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A687" s="1" t="n">
-        <v>42733.25</v>
+        <v>42733.375</v>
       </c>
       <c r="B687" s="2" t="n">
-        <v>143.2</v>
+        <v>128.5</v>
       </c>
       <c r="C687" s="2" t="n">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="688" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="688" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A688" s="1" t="n">
-        <v>42733.375</v>
+        <v>42733.5</v>
       </c>
       <c r="B688" s="2" t="n">
-        <v>128.5</v>
+        <v>138.8</v>
       </c>
       <c r="C688" s="2" t="n">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="689" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="689" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A689" s="1" t="n">
-        <v>42733.5</v>
+        <v>42733.625</v>
       </c>
       <c r="B689" s="2" t="n">
-        <v>138.8</v>
+        <v>145.5</v>
       </c>
       <c r="C689" s="2" t="n">
-        <v>2.8</v>
-      </c>
-    </row>
-    <row r="690" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="690" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A690" s="1" t="n">
-        <v>42733.625</v>
+        <v>42733.75</v>
       </c>
       <c r="B690" s="2" t="n">
-        <v>145.5</v>
+        <v>141.3</v>
       </c>
       <c r="C690" s="2" t="n">
-        <v>3.9</v>
-      </c>
-    </row>
-    <row r="691" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="691" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A691" s="1" t="n">
-        <v>42733.75</v>
+        <v>42733.875</v>
       </c>
       <c r="B691" s="2" t="n">
-        <v>141.3</v>
+        <v>127</v>
       </c>
       <c r="C691" s="2" t="n">
-        <v>3.4</v>
-      </c>
-    </row>
-    <row r="692" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="692" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A692" s="1" t="n">
-        <v>42733.875</v>
+        <v>42734</v>
       </c>
       <c r="B692" s="2" t="n">
-        <v>127</v>
+        <v>125.7</v>
       </c>
       <c r="C692" s="2" t="n">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="693" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A693" s="1" t="n">
+        <v>42734.125</v>
+      </c>
+      <c r="B693" s="2" t="n">
+        <v>110.9</v>
+      </c>
+      <c r="C693" s="2" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="694" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A694" s="1" t="n">
+        <v>42734.25</v>
+      </c>
+      <c r="B694" s="2" t="n">
+        <v>311</v>
+      </c>
+      <c r="C694" s="2" t="n">
         <v>3.3</v>
       </c>
     </row>
-    <row r="693" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A693" s="1" t="n">
-        <v>42734</v>
-      </c>
-      <c r="B693" s="2" t="n">
-        <v>125.7</v>
-      </c>
-      <c r="C693" s="2" t="n">
+    <row r="695" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A695" s="1" t="n">
+        <v>42734.375</v>
+      </c>
+      <c r="B695" s="2" t="n">
+        <v>288</v>
+      </c>
+      <c r="C695" s="2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="696" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A696" s="1" t="n">
+        <v>42734.5</v>
+      </c>
+      <c r="B696" s="2" t="n">
+        <v>275.9</v>
+      </c>
+      <c r="C696" s="2" t="n">
+        <v>5.1</v>
+      </c>
+    </row>
+    <row r="697" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A697" s="1" t="n">
+        <v>42734.625</v>
+      </c>
+      <c r="B697" s="2" t="n">
+        <v>261.4</v>
+      </c>
+      <c r="C697" s="2" t="n">
+        <v>4.1</v>
+      </c>
+    </row>
+    <row r="698" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A698" s="1" t="n">
+        <v>42734.75</v>
+      </c>
+      <c r="B698" s="2" t="n">
+        <v>265.9</v>
+      </c>
+      <c r="C698" s="2" t="n">
+        <v>5.1</v>
+      </c>
+    </row>
+    <row r="699" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A699" s="1" t="n">
+        <v>42734.875</v>
+      </c>
+      <c r="B699" s="2" t="n">
+        <v>269.9</v>
+      </c>
+      <c r="C699" s="2" t="n">
+        <v>4.9</v>
+      </c>
+    </row>
+    <row r="700" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A700" s="1" t="n">
+        <v>42735</v>
+      </c>
+      <c r="B700" s="2" t="n">
+        <v>276.8</v>
+      </c>
+      <c r="C700" s="2" t="n">
+        <v>4.6</v>
+      </c>
+    </row>
+    <row r="701" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A701" s="1" t="n">
+        <v>42735.125</v>
+      </c>
+      <c r="B701" s="2" t="n">
+        <v>282.5</v>
+      </c>
+      <c r="C701" s="2" t="n">
+        <v>4.1</v>
+      </c>
+    </row>
+    <row r="702" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A702" s="1" t="n">
+        <v>42735.25</v>
+      </c>
+      <c r="B702" s="2" t="n">
+        <v>277</v>
+      </c>
+      <c r="C702" s="2" t="n">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="703" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A703" s="1" t="n">
+        <v>42735.375</v>
+      </c>
+      <c r="B703" s="2" t="n">
+        <v>282.5</v>
+      </c>
+      <c r="C703" s="2" t="n">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="704" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A704" s="1" t="n">
+        <v>42735.5</v>
+      </c>
+      <c r="B704" s="2" t="n">
+        <v>279.8</v>
+      </c>
+      <c r="C704" s="2" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="705" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A705" s="1" t="n">
+        <v>42735.625</v>
+      </c>
+      <c r="B705" s="2" t="n">
+        <v>207.1</v>
+      </c>
+      <c r="C705" s="2" t="n">
         <v>1.9</v>
       </c>
     </row>
-    <row r="694" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A694" s="1" t="n">
-        <v>42734.125</v>
-      </c>
-      <c r="B694" s="2" t="n">
-        <v>110.9</v>
-      </c>
-      <c r="C694" s="2" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="695" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A695" s="1" t="n">
-        <v>42734.25</v>
-      </c>
-      <c r="B695" s="2" t="n">
-        <v>311</v>
-      </c>
-      <c r="C695" s="2" t="n">
+    <row r="706" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A706" s="1" t="n">
+        <v>42735.75</v>
+      </c>
+      <c r="B706" s="2" t="n">
+        <v>177</v>
+      </c>
+      <c r="C706" s="2" t="n">
         <v>3.3</v>
       </c>
     </row>
-    <row r="696" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A696" s="1" t="n">
-        <v>42734.375</v>
-      </c>
-      <c r="B696" s="2" t="n">
-        <v>288</v>
-      </c>
-      <c r="C696" s="2" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="697" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A697" s="1" t="n">
-        <v>42734.5</v>
-      </c>
-      <c r="B697" s="2" t="n">
-        <v>275.9</v>
-      </c>
-      <c r="C697" s="2" t="n">
-        <v>5.1</v>
-      </c>
-    </row>
-    <row r="698" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A698" s="1" t="n">
-        <v>42734.625</v>
-      </c>
-      <c r="B698" s="2" t="n">
-        <v>261.4</v>
-      </c>
-      <c r="C698" s="2" t="n">
-        <v>4.1</v>
-      </c>
-    </row>
-    <row r="699" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A699" s="1" t="n">
-        <v>42734.75</v>
-      </c>
-      <c r="B699" s="2" t="n">
-        <v>265.9</v>
-      </c>
-      <c r="C699" s="2" t="n">
-        <v>5.1</v>
-      </c>
-    </row>
-    <row r="700" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A700" s="1" t="n">
-        <v>42734.875</v>
-      </c>
-      <c r="B700" s="2" t="n">
-        <v>269.9</v>
-      </c>
-      <c r="C700" s="2" t="n">
-        <v>4.9</v>
-      </c>
-    </row>
-    <row r="701" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A701" s="1" t="n">
-        <v>42735</v>
-      </c>
-      <c r="B701" s="2" t="n">
-        <v>276.8</v>
-      </c>
-      <c r="C701" s="2" t="n">
-        <v>4.6</v>
-      </c>
-    </row>
-    <row r="702" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A702" s="1" t="n">
-        <v>42735.125</v>
-      </c>
-      <c r="B702" s="2" t="n">
-        <v>282.5</v>
-      </c>
-      <c r="C702" s="2" t="n">
-        <v>4.1</v>
-      </c>
-    </row>
-    <row r="703" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A703" s="1" t="n">
-        <v>42735.25</v>
-      </c>
-      <c r="B703" s="2" t="n">
-        <v>277</v>
-      </c>
-      <c r="C703" s="2" t="n">
-        <v>3.6</v>
-      </c>
-    </row>
-    <row r="704" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A704" s="1" t="n">
-        <v>42735.375</v>
-      </c>
-      <c r="B704" s="2" t="n">
-        <v>282.5</v>
-      </c>
-      <c r="C704" s="2" t="n">
-        <v>3.1</v>
-      </c>
-    </row>
-    <row r="705" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A705" s="1" t="n">
-        <v>42735.5</v>
-      </c>
-      <c r="B705" s="2" t="n">
-        <v>279.8</v>
-      </c>
-      <c r="C705" s="2" t="n">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="706" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A706" s="1" t="n">
-        <v>42735.625</v>
-      </c>
-      <c r="B706" s="2" t="n">
-        <v>207.1</v>
-      </c>
-      <c r="C706" s="2" t="n">
-        <v>1.9</v>
-      </c>
-    </row>
-    <row r="707" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="707" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A707" s="1" t="n">
-        <v>42735.75</v>
+        <v>42735.875</v>
       </c>
       <c r="B707" s="2" t="n">
-        <v>177</v>
+        <v>161</v>
       </c>
       <c r="C707" s="2" t="n">
-        <v>3.3</v>
-      </c>
-    </row>
-    <row r="708" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A708" s="1" t="n">
-        <v>42735.875</v>
-      </c>
-      <c r="B708" s="2" t="n">
-        <v>161</v>
-      </c>
-      <c r="C708" s="2" t="n">
         <v>3.5</v>
       </c>
     </row>
